--- a/spreadsheet/macrofree/avs_checklist.es.xlsx
+++ b/spreadsheet/macrofree/avs_checklist.es.xlsx
@@ -271,7 +271,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="30">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -285,6 +303,24 @@
       <border>
         <bottom style="thin">
           <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -329,60 +365,6 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -432,20 +414,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -467,13 +435,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -481,23 +442,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -522,6 +485,8 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -928,7 +893,7 @@
   <dimension ref="A2:P302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -955,7 +920,7 @@
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>FastTrack for Azure Checklist</t>
+          <t>Azure Checklist</t>
         </is>
       </c>
       <c r="B2" s="13" t="n"/>
@@ -976,7 +941,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Checklist</t>
+          <t>Azure VMware Solution Design Review</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1094,27 +1059,23 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Copia de seguridad</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las copias de seguridad no se almacenen en vSAN, ya que vSAN es un recurso finito</t>
-        </is>
-      </c>
-      <c r="D8" s="21" t="inlineStr">
-        <is>
-          <t>Asegúrese de que los repositorios de datos para la solución de copia de seguridad se almacenan fuera del almacenamiento de vSAN. En Azure nativo o en un almacén de datos respaldado por un grupo de discos</t>
-        </is>
-      </c>
+          <t>Asegúrese de que los controladores de dominio ADDS se implementan en la suscripción de identidad en Azure nativo</t>
+        </is>
+      </c>
+      <c r="D8" s="21" t="n"/>
       <c r="E8" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1123,17 +1084,13 @@
         </is>
       </c>
       <c r="G8" s="21" t="n"/>
-      <c r="H8" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/set-up-backup-server-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H8" s="15" t="n"/>
       <c r="I8" s="15" t="n"/>
       <c r="J8" s="22" t="n"/>
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>976f32a7-30d1-6caa-c2a0-207fdc26571b</t>
+          <t>32e42e36-11c8-418b-8a0b-c510e43a18a9</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1144,24 +1101,20 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>Continuidad del negocio</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Utilice MABS como solución de copia de seguridad</t>
-        </is>
-      </c>
-      <c r="D9" s="21" t="inlineStr">
-        <is>
-          <t>Servicio de copia de seguridad de Microsoft</t>
-        </is>
-      </c>
+          <t>Asegúrese de que los sitios y servicios de ADDS están configurados para mantener las solicitudes de autenticación de los recursos basados en Azure (incluida Azure VMware Solution) locales en Azure</t>
+        </is>
+      </c>
+      <c r="D9" s="21" t="n"/>
       <c r="E9" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -1173,17 +1126,13 @@
         </is>
       </c>
       <c r="G9" s="21" t="n"/>
-      <c r="H9" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/set-up-backup-server-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H9" s="15" t="n"/>
       <c r="I9" s="15" t="n"/>
       <c r="J9" s="22" t="n"/>
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>fc8af7a1-c724-e255-c18d-4ca22a6f27f0</t>
+          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1194,27 +1143,23 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Continuidad del negocio</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Implemente su solución de copia de seguridad en la misma región que su nube privada de Azure VMware Solution</t>
-        </is>
-      </c>
-      <c r="D10" s="21" t="inlineStr">
-        <is>
-          <t>Práctica recomendada: esto es copia de seguridad, no recuperación ante desastres</t>
-        </is>
-      </c>
+          <t>Asegúrese de que vCenter esté conectado a ADDS para habilitar la autenticación basada en "cuentas de usuario designadas"</t>
+        </is>
+      </c>
+      <c r="D10" s="21" t="n"/>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1223,17 +1168,13 @@
         </is>
       </c>
       <c r="G10" s="21" t="n"/>
-      <c r="H10" s="15" t="inlineStr">
-        <is>
-          <t>Best practice to deploy backup in the same region as your AVS deployment</t>
-        </is>
-      </c>
+      <c r="H10" s="15" t="n"/>
       <c r="I10" s="15" t="n"/>
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>be28860f-3d29-a79a-1a0e-36f1b23b36ae</t>
+          <t>de3aad1e-7c28-4ec9-9666-b7570449aa80</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1244,24 +1185,20 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>Continuidad del negocio</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Preferiblemente implementar MABS fuera del SDDC como IaaS de Azure nativo</t>
-        </is>
-      </c>
-      <c r="D11" s="21" t="inlineStr">
-        <is>
-          <t>Prácticas recomendadas: en caso de que AVS no esté disponible</t>
-        </is>
-      </c>
+          <t>Asegúrese de que la conexión de vCenter a ADDS utilice un protocolo seguro (LDAPS)</t>
+        </is>
+      </c>
+      <c r="D11" s="21" t="n"/>
       <c r="E11" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -1273,17 +1210,13 @@
         </is>
       </c>
       <c r="G11" s="21" t="n"/>
-      <c r="H11" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/set-up-backup-server-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H11" s="15" t="n"/>
       <c r="I11" s="15" t="n"/>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>4d2f79a5-4ccf-0dfc-557c-49619b99a540</t>
+          <t>cd289ced-6b17-4db8-8554-61e2aee3553a</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1294,24 +1227,20 @@
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>Continuidad del negocio</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Proceso de escalamiento con Microsoft en caso de un DR regional</t>
-        </is>
-      </c>
-      <c r="D12" s="21" t="inlineStr">
-        <is>
-          <t>¿Existe un proceso para solicitar una restauración de los componentes de VMware administrados por la plataforma Azure?</t>
-        </is>
-      </c>
+          <t>La cuenta de CloudAdmin en vCenter IdP solo se utiliza como una cuenta de emergencia (break-glass)</t>
+        </is>
+      </c>
+      <c r="D12" s="21" t="n"/>
       <c r="E12" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -1323,17 +1252,13 @@
         </is>
       </c>
       <c r="G12" s="21" t="n"/>
-      <c r="H12" s="15" t="inlineStr">
-        <is>
-          <t>Will Disaster Recovery Site Recovery, HCX Disaster Recovery, SRM or back tools be used?</t>
-        </is>
-      </c>
+      <c r="H12" s="15" t="n"/>
       <c r="I12" s="15" t="n"/>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>ff431c40-962c-5182-d536-0c2f0c4ce9e0</t>
+          <t>b9d37dac-43bc-46cd-8d79-a9b24604489a</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1344,27 +1269,23 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>Recuperación ante desastres</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Uso de VMware Site Recovery Manager cuando ambos sitios son Azure VMware Solution</t>
-        </is>
-      </c>
-      <c r="D13" s="21" t="inlineStr">
-        <is>
-          <t>Compare SRM con HCX</t>
-        </is>
-      </c>
+          <t>Asegúrese de que NSX-Manager esté integrado con un proveedor de identidades externo</t>
+        </is>
+      </c>
+      <c r="D13" s="21" t="n"/>
       <c r="E13" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1373,17 +1294,13 @@
         </is>
       </c>
       <c r="G13" s="21" t="n"/>
-      <c r="H13" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/disaster-recovery-using-vmware-site-recovery-manager</t>
-        </is>
-      </c>
+      <c r="H13" s="15" t="n"/>
       <c r="I13" s="15" t="n"/>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>f379436d-3051-daa0-01fb-dc4e0e04d677</t>
+          <t>53d88e89-d17b-473b-82a5-a67e7a9ed5b3</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1394,24 +1311,20 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>Recuperación ante desastres</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Uso de Azure Site Recovery cuando la tecnología de recuperación ante desastres es nativa de Azure IaaS</t>
-        </is>
-      </c>
-      <c r="D14" s="21" t="inlineStr">
-        <is>
-          <t>Recuperación en Azure en lugar de la solución de VMware</t>
-        </is>
-      </c>
+          <t>¿Se ha creado un modelo RBAC para su uso en VMware vSphere?</t>
+        </is>
+      </c>
+      <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -1423,17 +1336,13 @@
         </is>
       </c>
       <c r="G14" s="21" t="n"/>
-      <c r="H14" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/site-recovery/avs-tutorial-prepare-azure</t>
-        </is>
-      </c>
+      <c r="H14" s="15" t="n"/>
       <c r="I14" s="15" t="n"/>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>367f71d8-3cf6-51a0-91a5-3db3d570cc19</t>
+          <t>ae0e37ce-e297-411b-b352-caaab79b198d</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1444,24 +1353,20 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>Recuperación ante desastres</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Usar planes de recuperación automatizada con cualquiera de las soluciones de desastre,</t>
-        </is>
-      </c>
-      <c r="D15" s="21" t="inlineStr">
-        <is>
-          <t>Evite las tareas manuales tanto como sea posible</t>
-        </is>
-      </c>
+          <t>Los permisos RBAC deben concederse a grupos ADDS y no a usuarios específicos</t>
+        </is>
+      </c>
+      <c r="D15" s="21" t="n"/>
       <c r="E15" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -1473,17 +1378,13 @@
         </is>
       </c>
       <c r="G15" s="21" t="n"/>
-      <c r="H15" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/site-recovery/avs-tutorial-prepare-azure</t>
-        </is>
-      </c>
+      <c r="H15" s="15" t="n"/>
       <c r="I15" s="15" t="n"/>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>ee02ada0-1887-bb3a-b84c-423f45a09ef9</t>
+          <t>ab81932c-9fc9-4d1b-a780-36f5e6bfbb9e</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1494,27 +1395,23 @@
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>Recuperación ante desastres</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Configurar un entorno secundario de recuperación ante desastres</t>
-        </is>
-      </c>
-      <c r="D16" s="21" t="inlineStr">
-        <is>
-          <t>Cualquier otro centro de datos en la misma región</t>
-        </is>
-      </c>
+          <t>Los permisos de RBAC en el recurso de Azure VMware Solution en Azure están "bloqueados" solo para un conjunto limitado de propietarios</t>
+        </is>
+      </c>
+      <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1523,17 +1420,13 @@
         </is>
       </c>
       <c r="G16" s="21" t="n"/>
-      <c r="H16" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/connect-multiple-private-clouds-same-region</t>
-        </is>
-      </c>
+      <c r="H16" s="15" t="n"/>
       <c r="I16" s="15" t="n"/>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>0c2b74e5-9c28-780d-1df3-12d3de4aaa76</t>
+          <t>d503547c-c447-4e82-9128-a71f0f1cac6d</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1544,27 +1437,23 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>Recuperación ante desastres</t>
+          <t>Arquitectura</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Asignar intervalos de IP únicos a cada región</t>
-        </is>
-      </c>
-      <c r="D17" s="21" t="inlineStr">
-        <is>
-          <t>Utilice 2 espacios de direcciones diferentes entre las regiones, por ejemplo: 10.0.0.0/16 y 192.168.0.0/16 para las diferentes regiones</t>
-        </is>
-      </c>
+          <t>¿Se ha seleccionado el modelo de conectividad de Azure VMware Solution correcto para el caso de uso del cliente en cuestión?</t>
+        </is>
+      </c>
+      <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1575,7 +1464,7 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://github.com/Azure/AzureCAT-AVS/tree/main/networking</t>
         </is>
       </c>
       <c r="I17" s="15" t="n"/>
@@ -1583,7 +1472,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>c2a34ec4-2933-4e6c-dc36-e20e67abbe3f</t>
+          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1594,27 +1483,23 @@
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>Recuperación ante desastres</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Utilice el alcance global entre regiones de RD</t>
-        </is>
-      </c>
-      <c r="D18" s="21" t="inlineStr">
-        <is>
-          <t>ExpressRoute Global Reach se puede usar para la conectividad entre las nubes privadas de Azure VMware Solution principal y secundaria o el enrutamiento debe realizarse a través de dispositivos virtuales de red.</t>
-        </is>
-      </c>
+          <t>Asegúrese de que las conexiones de ExpressRoute o VPN desde el entorno local a Azure se supervisan mediante el "monitor de conexiones"</t>
+        </is>
+      </c>
+      <c r="D18" s="21" t="n"/>
       <c r="E18" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1623,17 +1508,13 @@
         </is>
       </c>
       <c r="G18" s="21" t="n"/>
-      <c r="H18" s="15" t="inlineStr">
-        <is>
-          <t>This depends if you have multiple AVS Private Clouds. If so and they are in the same region then use AVS Interconnect. If they are in separate regions then use ExpressRoute Global Reach.</t>
-        </is>
-      </c>
+      <c r="H18" s="15" t="n"/>
       <c r="I18" s="15" t="n"/>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>b44fb6ec-bfc1-3a8e-dba2-ca97f0991d2c</t>
+          <t>dbf590ce-65de-48e0-9f9c-cbd468266abc</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1644,24 +1525,20 @@
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>Encriptación</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Uso del Almacén de claves de Azure con cifrado en invitado </t>
-        </is>
-      </c>
-      <c r="D19" s="21" t="inlineStr">
-        <is>
-          <t>Cuando se usa el cifrado en el invitado, almacene las claves de cifrado en el Almacén de claves de Azure cuando sea posible</t>
-        </is>
-      </c>
+          <t>Asegúrese de que se crea un monitor de conexión desde un recurso nativo de Azure a una máquina virtual de Azure VMware Solution para supervisar la conexión de ExpressRoute back-end de Azure VMware Solution</t>
+        </is>
+      </c>
+      <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -1673,17 +1550,13 @@
         </is>
       </c>
       <c r="G19" s="21" t="n"/>
-      <c r="H19" s="15" t="inlineStr">
-        <is>
-          <t>General recommendation for storing encryption keys.</t>
-        </is>
-      </c>
+      <c r="H19" s="15" t="n"/>
       <c r="I19" s="15" t="n"/>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>70cfbddc-d3d4-9188-77c8-1cabaefef646</t>
+          <t>e6a84de5-df43-4d19-a248-1718d5d1e5f6</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1694,24 +1567,20 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>Encriptación</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Usar el cifrado en el invitado</t>
-        </is>
-      </c>
-      <c r="D20" s="21" t="inlineStr">
-        <is>
-          <t>Asegúrese de que las cargas de trabajo de Azure VMware Solution usen suficiente cifrado de datos durante el tiempo de ejecución (como el cifrado de disco invitado y SQL TDE). (El cifrado de vSAN en reposo es el predeterminado)</t>
-        </is>
-      </c>
+          <t>Asegúrese de que se crea un monitor de conexión desde un recurso local a una máquina virtual de Azure VMware Solution para supervisar la conectividad de extremo a extremo</t>
+        </is>
+      </c>
+      <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -1723,17 +1592,13 @@
         </is>
       </c>
       <c r="G20" s="21" t="n"/>
-      <c r="H20" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/concepts-storage#data-at-rest-encryption</t>
-        </is>
-      </c>
+      <c r="H20" s="15" t="n"/>
       <c r="I20" s="15" t="n"/>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>c1a81638-18df-0ce9-a73a-4b9a8a8dd392</t>
+          <t>25659d35-58fd-4772-99c9-31112d027fe4</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1744,27 +1609,23 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>Encriptación</t>
+          <t>Enrutamiento</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Uso de Keyvault para secretos</t>
-        </is>
-      </c>
-      <c r="D21" s="21" t="inlineStr">
-        <is>
-          <t>Use el Almacén de claves para almacenar secretos y claves de autorización cuando se usen principios de servicio independientes para implementar Azure VMware Solution y ExpressRoute</t>
-        </is>
-      </c>
+          <t>Cuando se utiliza el servidor de rutas, asegúrese de que no se propaguen más de 200 rutas desde el servidor de rutas a la puerta de enlace de ExR a las instalaciones (límite de ARS). Importante cuando se usa MoN</t>
+        </is>
+      </c>
+      <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1773,17 +1634,13 @@
         </is>
       </c>
       <c r="G21" s="21" t="n"/>
-      <c r="H21" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/key-vault/general/authentication</t>
-        </is>
-      </c>
+      <c r="H21" s="15" t="n"/>
       <c r="I21" s="15" t="n"/>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>8d0a8f51-8d35-19cd-c2fe-4e3512fb467e</t>
+          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1794,27 +1651,23 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>Soporte extendido</t>
+          <t>Seguridad (identidad)</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Garantice la compatibilidad ampliada con actualizaciones de seguridad </t>
-        </is>
-      </c>
-      <c r="D22" s="21" t="inlineStr">
-        <is>
-          <t>Las revisiones de seguridad de sistemas operativos anteriores configuradas para cargas de trabajo que se ejecutan en Azure VMware Solution son aptas para ESU</t>
-        </is>
-      </c>
+          <t>¿Se ha implementado Privileged Identity Management para los roles que administran el recurso de Azure VMware Solution en Azure Portal (no se permiten permisos permanentes)?</t>
+        </is>
+      </c>
+      <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1823,17 +1676,13 @@
         </is>
       </c>
       <c r="G22" s="21" t="n"/>
-      <c r="H22" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/windows-server/get-started/extended-security-updates-deploy</t>
-        </is>
-      </c>
+      <c r="H22" s="15" t="n"/>
       <c r="I22" s="15" t="n"/>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>4f8b20e9-a2a1-f80f-af9b-8aa3b26dca08</t>
+          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1844,27 +1693,23 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>Investigación</t>
+          <t>Seguridad (identidad)</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Habilitar Azure Sentinel o SIEM de 3.ª parte </t>
-        </is>
-      </c>
-      <c r="D23" s="21" t="inlineStr">
-        <is>
-          <t>Utilice un SIEM/SOAR</t>
-        </is>
-      </c>
+          <t>¿Se han implementado los informes de auditoría de Privileged Identity Management para los roles PIM de Azure VMware Solution?</t>
+        </is>
+      </c>
+      <c r="D23" s="21" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1873,17 +1718,13 @@
         </is>
       </c>
       <c r="G23" s="21" t="n"/>
-      <c r="H23" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/sentinel/overview</t>
-        </is>
-      </c>
+      <c r="H23" s="15" t="n"/>
       <c r="I23" s="15" t="n"/>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>9bb22fec-4d00-3b95-7136-e225d0f5c63a</t>
+          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1894,27 +1735,23 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>Conectividad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>Directo (sin vWAN, sin H&amp;S)</t>
+          <t>Seguridad (identidad)</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Circuito de alcance global a ExR: no hay recursos de Azure</t>
-        </is>
-      </c>
-      <c r="D24" s="21" t="inlineStr">
-        <is>
-          <t>Se establecerá una conexión de alcance global de ExR al circuito ExR, no se establecerán otras conexiones</t>
-        </is>
-      </c>
+          <t>Limite el uso de la cuenta de CloudAdmin solo al acceso de emergencia</t>
+        </is>
+      </c>
+      <c r="D24" s="21" t="n"/>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1923,17 +1760,13 @@
         </is>
       </c>
       <c r="G24" s="21" t="n"/>
-      <c r="H24" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/tutorial-expressroute-global-reach-private-cloud</t>
-        </is>
-      </c>
+      <c r="H24" s="15" t="n"/>
       <c r="I24" s="15" t="n"/>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>a2c12df2-07fa-3edd-2cec-fda0b55fb952</t>
+          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1944,24 +1777,20 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>Conectividad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Seguridad (identidad)</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Conexión a Azure mediante ExR</t>
-        </is>
-      </c>
-      <c r="D25" s="21" t="inlineStr">
-        <is>
-          <t>Uso de ExR para conectar una ubicación local (otra) a Azure</t>
-        </is>
-      </c>
+          <t>Cree funciones RBAC personalizadas en vCenter para implementar un modelo de privilegios mínimos dentro de vCenter</t>
+        </is>
+      </c>
+      <c r="D25" s="21" t="n"/>
       <c r="E25" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -1973,17 +1802,13 @@
         </is>
       </c>
       <c r="G25" s="21" t="n"/>
-      <c r="H25" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/tutorial-expressroute-global-reach-private-cloud</t>
-        </is>
-      </c>
+      <c r="H25" s="15" t="n"/>
       <c r="I25" s="15" t="n"/>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>f62ce162-ba5a-429d-674e-fafa1af5f706</t>
+          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1994,24 +1819,20 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="inlineStr">
         <is>
-          <t>Conectividad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Seguridad (identidad)</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Tamaño del ancho de banda</t>
-        </is>
-      </c>
-      <c r="D26" s="21" t="inlineStr">
-        <is>
-          <t>Usar la herramienta de evaluación de migración y la escala de tiempo para determinar el ancho de banda necesario</t>
-        </is>
-      </c>
+          <t>Es un proceso definido para rotar periódicamente las credenciales de administrador de la nube (vCenter) y administrador (NSX)</t>
+        </is>
+      </c>
+      <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -2023,17 +1844,13 @@
         </is>
       </c>
       <c r="G26" s="21" t="n"/>
-      <c r="H26" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/expressroute/expressroute-introduction</t>
-        </is>
-      </c>
+      <c r="H26" s="15" t="n"/>
       <c r="I26" s="15" t="n"/>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>cf01c73b-1247-0a7a-740c-e1ea29bda340</t>
+          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -2044,27 +1861,23 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
         <is>
-          <t>Conectividad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Seguridad (identidad)</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enrutamiento del tráfico </t>
-        </is>
-      </c>
-      <c r="D27" s="21" t="inlineStr">
-        <is>
-          <t>Qué tráfico se enruta a través de un firewall, qué va directamente a Azure</t>
-        </is>
-      </c>
+          <t>Uso de un proveedor de identidades centralizado que se usará para las cargas de trabajo (VM) que se ejecutan en Azure VMware Solution</t>
+        </is>
+      </c>
+      <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2073,16 +1886,12 @@
         </is>
       </c>
       <c r="G27" s="21" t="n"/>
-      <c r="H27" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/solution-ideas/articles/azure-vmware-solution-foundation-networking</t>
-        </is>
-      </c>
+      <c r="H27" s="15" t="n"/>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>aab216ee-8941-315e-eada-c7e1f2243bd1</t>
+          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2093,24 +1902,20 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="inlineStr">
         <is>
-          <t>Conectividad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>Seguridad (red)</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alcance global </t>
-        </is>
-      </c>
-      <c r="D28" s="21" t="inlineStr">
-        <is>
-          <t>Circuito AVS a ExR, sin inspección de tráfico</t>
-        </is>
-      </c>
+          <t>¿Se implementa el filtrado de tráfico este-oeste en NSX-T?</t>
+        </is>
+      </c>
+      <c r="D28" s="21" t="n"/>
       <c r="E28" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -2122,16 +1927,12 @@
         </is>
       </c>
       <c r="G28" s="21" t="n"/>
-      <c r="H28" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/solution-ideas/articles/azure-vmware-solution-foundation-networking</t>
-        </is>
-      </c>
+      <c r="H28" s="15" t="n"/>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>1f956e45-f62d-5c95-3a95-3bab718907f8</t>
+          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2142,27 +1943,23 @@
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="21" t="inlineStr">
         <is>
-          <t>Conectividad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>Hub &amp; Spoke</t>
+          <t>Seguridad (red)</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Espacio de direcciones y nombres de vNet</t>
-        </is>
-      </c>
-      <c r="D29" s="21" t="inlineStr">
-        <is>
-          <t>Nombre de la red virtual y un espacio de direcciones único /24 mínimo</t>
-        </is>
-      </c>
+          <t>Las cargas de trabajo de Azure VMware Solution no se exponen directamente a Internet. El tráfico se filtra e inspecciona mediante Azure Application Gateway, Azure Firewall o soluciones de terceros</t>
+        </is>
+      </c>
+      <c r="D29" s="21" t="n"/>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2171,16 +1968,12 @@
         </is>
       </c>
       <c r="G29" s="21" t="n"/>
-      <c r="H29" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/quick-create-portal</t>
-        </is>
-      </c>
+      <c r="H29" s="15" t="n"/>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>91f7a87b-21ac-d712-959c-8df2ba034253</t>
+          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2191,27 +1984,23 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>Conectividad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>Hub &amp; Spoke</t>
+          <t>Seguridad (red)</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Subred de puerta de enlace</t>
-        </is>
-      </c>
-      <c r="D30" s="21" t="inlineStr">
-        <is>
-          <t>La subred debe llamarse GatewaySubnet</t>
-        </is>
-      </c>
+          <t>La auditoría y el registro se implementan para las solicitudes entrantes de Internet a Azure VMware Solution y a las cargas de trabajo basadas en Azure VMware Solution</t>
+        </is>
+      </c>
+      <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2220,16 +2009,12 @@
         </is>
       </c>
       <c r="G30" s="21" t="n"/>
-      <c r="H30" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings</t>
-        </is>
-      </c>
+      <c r="H30" s="15" t="n"/>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>58a027e2-f37f-b540-45d5-e44843aba26b</t>
+          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2240,24 +2025,20 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>Conectividad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>Hub &amp; Spoke</t>
+          <t>Seguridad (red)</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Puerta de enlace VPN</t>
-        </is>
-      </c>
-      <c r="D31" s="21" t="inlineStr">
-        <is>
-          <t>Crear una puerta de enlace VPN en la subred de puerta de enlace del concentrador</t>
-        </is>
-      </c>
+          <t>La supervisión de sesiones se implementa para las conexiones salientes a Internet desde Azure VMware Solution o cargas de trabajo basadas en Azure VMware Solution para identificar actividades sospechosas o malintencionadas</t>
+        </is>
+      </c>
+      <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -2269,16 +2050,12 @@
         </is>
       </c>
       <c r="G31" s="21" t="n"/>
-      <c r="H31" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings</t>
-        </is>
-      </c>
+      <c r="H31" s="15" t="n"/>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>d4806549-0913-3e79-b580-ac2d3706e65a</t>
+          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2289,24 +2066,20 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="21" t="inlineStr">
         <is>
-          <t>Conectividad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>Hub &amp; Spoke</t>
+          <t>Seguridad (red)</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Puerta de enlace ExR</t>
-        </is>
-      </c>
-      <c r="D32" s="21" t="inlineStr">
-        <is>
-          <t>Cree una puerta de enlace de ExR en la subred de puerta de enlace del concentrador.</t>
-        </is>
-      </c>
+          <t>¿Está habilitada la protección estándar contra DDoS en la subred de puerta de enlace de ExR/VPN en Azure?</t>
+        </is>
+      </c>
+      <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -2318,17 +2091,13 @@
         </is>
       </c>
       <c r="G32" s="21" t="n"/>
-      <c r="H32" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings</t>
-        </is>
-      </c>
+      <c r="H32" s="15" t="n"/>
       <c r="I32" s="15" t="n"/>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>864d7a8b-7016-c769-a717-61af6bfb73d2</t>
+          <t>334fdf91-c234-4182-a652-75269440b4be</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2339,24 +2108,20 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>Conectividad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Seguridad (red)</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Punto de salida</t>
-        </is>
-      </c>
-      <c r="D33" s="21" t="inlineStr">
-        <is>
-          <t>¿Cómo se enrutará el tráfico de Internet, Az Firewall, NVA, Secure Hub, firewall local?</t>
-        </is>
-      </c>
+          <t>Use una estación de trabajo de acceso con privilegios (PAW) dedicada para administrar Azure VMware Solution, vCenter, NSX Manager y HCX Manager</t>
+        </is>
+      </c>
+      <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -2368,17 +2133,13 @@
         </is>
       </c>
       <c r="G33" s="21" t="n"/>
-      <c r="H33" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/enable-public-internet-access</t>
-        </is>
-      </c>
+      <c r="H33" s="15" t="n"/>
       <c r="I33" s="15" t="n"/>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>cc2e11b9-7911-7da1-458c-d7fcef794aad</t>
+          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2389,24 +2150,20 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="21" t="inlineStr">
         <is>
-          <t>Conectividad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>Jumpbox y Bastión</t>
+          <t>Seguridad (invitado/máquina virtual)</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Conectividad remota a AVS</t>
-        </is>
-      </c>
-      <c r="D34" s="21" t="inlineStr">
-        <is>
-          <t>Permitir la conectividad remota a AVS a través del portal, específicamente a vCenter, NSX-T y HCX</t>
-        </is>
-      </c>
+          <t>Habilitación de la detección avanzada de amenazas (Microsoft Defender for Cloud, también conocida como ASC) para cargas de trabajo que se ejecutan en Azure VMware Solution</t>
+        </is>
+      </c>
+      <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -2418,17 +2175,13 @@
         </is>
       </c>
       <c r="G34" s="21" t="n"/>
-      <c r="H34" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/answers/questions/171195/how-to-create-jump-server-in-azure-not-bastion-paa.html</t>
-        </is>
-      </c>
+      <c r="H34" s="15" t="n"/>
       <c r="I34" s="15" t="n"/>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>71e68ce3-982e-5e56-0191-01100ad0e66f</t>
+          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2439,24 +2192,20 @@
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="21" t="inlineStr">
         <is>
-          <t>Conectividad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Jumpbox y Bastión</t>
+          <t>Seguridad (invitado/máquina virtual)</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Configuración de un jumbox y Azure Bastion</t>
-        </is>
-      </c>
-      <c r="D35" s="21" t="inlineStr">
-        <is>
-          <t>Asigne un nombre al jumpbox e identifique la subred donde se hospedará</t>
-        </is>
-      </c>
+          <t>Use Azure ARC for Servers para controlar correctamente las cargas de trabajo que se ejecutan en Azure VMware Solution mediante tecnologías nativas de Azure (Azure ARC for Azure VMware Solution aún no está disponible)</t>
+        </is>
+      </c>
+      <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -2468,17 +2217,13 @@
         </is>
       </c>
       <c r="G35" s="21" t="n"/>
-      <c r="H35" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/bastion/tutorial-create-host-portal</t>
-        </is>
-      </c>
+      <c r="H35" s="15" t="n"/>
       <c r="I35" s="15" t="n"/>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>6f8e93a2-44b1-bb1d-28a1-4d5b3c2ea857</t>
+          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2489,27 +2234,23 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>Conectividad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>Jumpbox y Bastión</t>
+          <t>Seguridad (invitado/máquina virtual)</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Medida de seguridad que permite el acceso RDP a través del portal</t>
-        </is>
-      </c>
-      <c r="D36" s="21" t="inlineStr">
-        <is>
-          <t>Proporciona conectividad RDP/SSH segura / sin problemas a sus máquinas virtuales directamente a través del portal.</t>
-        </is>
-      </c>
+          <t>Asegúrese de que las cargas de trabajo de Azure VMware Solution usen suficiente cifrado de datos durante el tiempo de ejecución (como el cifrado de disco invitado y SQL TDE). (El cifrado de vSAN en reposo es el predeterminado)</t>
+        </is>
+      </c>
+      <c r="D36" s="21" t="n"/>
       <c r="E36" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2518,17 +2259,13 @@
         </is>
       </c>
       <c r="G36" s="21" t="n"/>
-      <c r="H36" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-groups-overview</t>
-        </is>
-      </c>
+      <c r="H36" s="15" t="n"/>
       <c r="I36" s="15" t="n"/>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>ba430d58-4541-085c-3641-068c00be9bc5</t>
+          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2539,27 +2276,23 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>Conectividad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>Seguridad (invitado/máquina virtual)</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Conexión a Azure mediante una VPN</t>
-        </is>
-      </c>
-      <c r="D37" s="21" t="inlineStr">
-        <is>
-          <t>Uso de una VPN para conectarse a Azure para habilitar las comunicaciones de VMware (HCX) (no recomendado)</t>
-        </is>
-      </c>
+          <t>Cuando se usa el cifrado en invitado, almacene las claves de cifrado en Azure Key Vault siempre que sea posible</t>
+        </is>
+      </c>
+      <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2568,17 +2301,13 @@
         </is>
       </c>
       <c r="G37" s="21" t="n"/>
-      <c r="H37" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/configure-site-to-site-vpn-gateway</t>
-        </is>
-      </c>
+      <c r="H37" s="15" t="n"/>
       <c r="I37" s="15" t="n"/>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>9988598f-2a9f-6b12-9b46-488415ceb325</t>
+          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2589,27 +2318,23 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>Conectividad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>Seguridad (invitado/máquina virtual)</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Tamaño del ancho de banda</t>
-        </is>
-      </c>
-      <c r="D38" s="21" t="inlineStr">
-        <is>
-          <t>Utilice la herramienta de evaluación de migración y la línea de tiempo para determinar el ancho de banda requerido (por ejemplo, la herramienta 3rd party en el enlace)</t>
-        </is>
-      </c>
+          <t>Asegúrese de que la compatibilidad con las actualizaciones de seguridad extendidas está configurada para las cargas de trabajo que se ejecutan en Azure VMware Solution (Azure VMware Solution es apta para ESU)</t>
+        </is>
+      </c>
+      <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2618,17 +2343,13 @@
         </is>
       </c>
       <c r="G38" s="21" t="n"/>
-      <c r="H38" s="15" t="inlineStr">
-        <is>
-          <t>https://www.omnicalculator.com/other/data-transfer#:~:text=To%20calculate%20the%20data%20transfer%20speed%3A%201%20Download,measured%20time%20to%20find%20the%20data%20transfer%20speed.</t>
-        </is>
-      </c>
+      <c r="H38" s="15" t="n"/>
       <c r="I38" s="15" t="n"/>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>956ce5e9-a862-fe2b-a50d-a22923569357</t>
+          <t>5ac94222-3e13-4810-9230-81a941741583</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2639,27 +2360,23 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>Conectividad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>Gobernanza (plataforma)</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enrutamiento del tráfico </t>
-        </is>
-      </c>
-      <c r="D39" s="21" t="inlineStr">
-        <is>
-          <t>Qué tráfico se enruta a través de un firewall, qué va directamente a Azure</t>
-        </is>
-      </c>
+          <t>Asegúrese de que se usa la directiva de almacenamiento de plantilla de máquina virtual adecuada</t>
+        </is>
+      </c>
+      <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2668,17 +2385,13 @@
         </is>
       </c>
       <c r="G39" s="21" t="n"/>
-      <c r="H39" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/solution-ideas/articles/azure-vmware-solution-foundation-networking</t>
-        </is>
-      </c>
+      <c r="H39" s="15" t="n"/>
       <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>e095116f-0bdc-4b51-4d71-b9e469d56f59</t>
+          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2689,27 +2402,23 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>Conectividad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>Concentrador de vWAN</t>
+          <t>Gobernanza (plataforma)</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Nombre de vWAN, nombre de hub y espacio de direcciones</t>
-        </is>
-      </c>
-      <c r="D40" s="21" t="inlineStr">
-        <is>
-          <t>Nombre y espacio de direcciones único para la vWAN, nombre para el concentrador de vWAN</t>
-        </is>
-      </c>
+          <t>Asegúrese de que ha solicitado una cuota suficiente, asegurándose de que ha tenido en cuenta el crecimiento y el requisito de recuperación ante desastres</t>
+        </is>
+      </c>
+      <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2718,17 +2427,13 @@
         </is>
       </c>
       <c r="G40" s="21" t="n"/>
-      <c r="H40" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-wan/virtual-wan-site-to-site-portal#openvwan</t>
-        </is>
-      </c>
+      <c r="H40" s="15" t="n"/>
       <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>4dc480ac-cecd-39c4-fdc6-680b300716ab</t>
+          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2739,27 +2444,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>Conectividad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>Concentrador de vWAN</t>
+          <t>Gobernanza (plataforma)</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>ExR y/o puerta de enlace VPN aprovisionada</t>
-        </is>
-      </c>
-      <c r="D41" s="21" t="inlineStr">
-        <is>
-          <t>Seleccione boh o el tipo de conexión adecuado.</t>
-        </is>
-      </c>
+          <t>Asegúrese de que la directiva de error de tolerancia esté implementada para satisfacer sus necesidades de almacenamiento de vSAN</t>
+        </is>
+      </c>
+      <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2768,17 +2469,13 @@
         </is>
       </c>
       <c r="G41" s="21" t="n"/>
-      <c r="H41" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-wan/virtual-wan-point-to-site-portal</t>
-        </is>
-      </c>
+      <c r="H41" s="15" t="n"/>
       <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>51d6affd-8e02-6aea-d3d4-0baf618b3076</t>
+          <t>d88408f3-7273-44c8-96ba-280214590146</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2789,24 +2486,20 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>Conectividad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>Concentrador de vWAN</t>
+          <t>Gobernanza (plataforma)</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>vWAN segura</t>
-        </is>
-      </c>
-      <c r="D42" s="21" t="inlineStr">
-        <is>
-          <t>Agregar Azure firewall a vWAN (recomendado)</t>
-        </is>
-      </c>
+          <t>Asegúrese de que se comprenden las restricciones de acceso a ESXi, ya que existen límites de acceso que pueden afectar a las soluciones de terceros.</t>
+        </is>
+      </c>
+      <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -2818,17 +2511,13 @@
         </is>
       </c>
       <c r="G42" s="21" t="n"/>
-      <c r="H42" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-wan/virtual-wan-expressroute-portal</t>
-        </is>
-      </c>
+      <c r="H42" s="15" t="n"/>
       <c r="I42" s="15" t="n"/>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>e32a4c67-3dc0-c134-1c12-52d46dcbab5b</t>
+          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2839,27 +2528,23 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>Acceso</t>
+          <t>Gobernanza (plataforma)</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Identidad externa (cuentas de usuario)</t>
-        </is>
-      </c>
-      <c r="D43" s="21" t="inlineStr">
-        <is>
-          <t>Active Directory u otros servidores de proveedores de identidades</t>
-        </is>
-      </c>
+          <t>Asegúrese de tener una política en torno a la densidad y la eficiencia del host ESXi, teniendo en cuenta el tiempo de espera para solicitar nuevos nodos</t>
+        </is>
+      </c>
+      <c r="D43" s="21" t="n"/>
       <c r="E43" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2868,17 +2553,13 @@
         </is>
       </c>
       <c r="G43" s="21" t="n"/>
-      <c r="H43" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/configure-identity-source-vcenter</t>
-        </is>
-      </c>
+      <c r="H43" s="15" t="n"/>
       <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>fbc47fbf-bc96-fa93-ed5d-8c9be63cd5c3</t>
+          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2889,24 +2570,20 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>Acceso</t>
+          <t>Gobernanza (plataforma)</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Si usa un dominio de AD, asegúrese de que se hayan configurado Sitios y servicios</t>
-        </is>
-      </c>
-      <c r="D44" s="21" t="inlineStr">
-        <is>
-          <t>No es necesario para LDAPS, necesario para Kerberos</t>
-        </is>
-      </c>
+          <t>Asegúrese de que existe un buen proceso de administración de costos para Azure VMware Solution: se puede usar Azure Cost Management</t>
+        </is>
+      </c>
+      <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -2918,17 +2595,13 @@
         </is>
       </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/windows-server/identity/ad-ds/plan/understanding-active-directory-site-topology</t>
-        </is>
-      </c>
+      <c r="H44" s="15" t="n"/>
       <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>b5db7975-f6bb-8ba3-ee5f-e3e805887997</t>
+          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2939,27 +2612,23 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>Acceso</t>
+          <t>Gobernanza (plataforma)</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Usar LDAPS, no ldap ( vCenter)</t>
-        </is>
-      </c>
-      <c r="D45" s="21" t="inlineStr">
-        <is>
-          <t>La autenticación para los usuarios debe ser segura.</t>
-        </is>
-      </c>
+          <t>¿Se usan instancias reservadas de Azure para optimizar el costo de uso de Azure VMware Solution?</t>
+        </is>
+      </c>
+      <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2968,16 +2637,12 @@
         </is>
       </c>
       <c r="G45" s="21" t="n"/>
-      <c r="H45" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/configure-identity-source-vcenter</t>
-        </is>
-      </c>
+      <c r="H45" s="15" t="n"/>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>c30749c4-e2af-558c-2eb9-0b6ae84881d1</t>
+          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2988,24 +2653,20 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Acceso</t>
+          <t>Gobernanza (plataforma)</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Usar LDAPS, no LDAP (NSX-T)</t>
-        </is>
-      </c>
-      <c r="D46" s="21" t="inlineStr">
-        <is>
-          <t>La autenticación para los usuarios debe ser segura.</t>
-        </is>
-      </c>
+          <t>Tenga en cuenta el uso de Azure Private-Link cuando use otros servicios nativos de Azure</t>
+        </is>
+      </c>
+      <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -3017,17 +2678,13 @@
         </is>
       </c>
       <c r="G46" s="21" t="n"/>
-      <c r="H46" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/configure-external-identity-source-nsx-t</t>
-        </is>
-      </c>
+      <c r="H46" s="15" t="n"/>
       <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>64cb9b5c-9edd-787e-1dd8-2b2338e51635</t>
+          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -3038,24 +2695,20 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gobernanza (invitado/VM)</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certificado de seguridad instalado en servidores LDAPS </t>
-        </is>
-      </c>
-      <c r="D47" s="21" t="inlineStr">
-        <is>
-          <t>Nombres CN o SAN, sin comodines, contiene clave privada: CER o PFX</t>
-        </is>
-      </c>
+          <t>Habilitación de cargas de trabajo de máquina virtual invitada de Microsoft Defender for Cloud for Azure VMware Solution</t>
+        </is>
+      </c>
+      <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -3067,17 +2720,13 @@
         </is>
       </c>
       <c r="G47" s="21" t="n"/>
-      <c r="H47" s="15" t="inlineStr">
-        <is>
-          <t>https://youtu.be/4jvfbsrhnEs</t>
-        </is>
-      </c>
+      <c r="H47" s="15" t="n"/>
       <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>bec285ab-037e-d629-81d1-f61dac23cd4c</t>
+          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3088,24 +2737,20 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gobernanza (invitado/VM)</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>RBAC aplicado a roles de Azure</t>
-        </is>
-      </c>
-      <c r="D48" s="21" t="inlineStr">
-        <is>
-          <t>Controles de acceso basados en roles estándar de Azure</t>
-        </is>
-      </c>
+          <t>Uso de servidores habilitados para Azure Arc para administrar las cargas de trabajo de máquinas virtuales invitadas de Azure VMware Solution</t>
+        </is>
+      </c>
+      <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -3117,16 +2762,12 @@
         </is>
       </c>
       <c r="G48" s="21" t="n"/>
-      <c r="H48" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-identity</t>
-        </is>
-      </c>
+      <c r="H48" s="15" t="n"/>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>4ba394a2-3c33-104c-8e34-2dadaba9cc73</t>
+          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3137,27 +2778,23 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gobernanza (invitado/VM)</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Modelo RBAC en vCenter</t>
-        </is>
-      </c>
-      <c r="D49" s="21" t="inlineStr">
-        <is>
-          <t>Crear roles en vCenter necesarios para cumplir con las directrices mínimas de acceso viable</t>
-        </is>
-      </c>
+          <t>Habilitación del registro de diagnósticos y métricas en Azure VMware Solution</t>
+        </is>
+      </c>
+      <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3166,16 +2803,12 @@
         </is>
       </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-identity#view-the-vcenter-server-privileges</t>
-        </is>
-      </c>
+      <c r="H49" s="15" t="n"/>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>b04ca129-83a9-3494-7512-347dd2d766db</t>
+          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3186,24 +2819,20 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gobernanza (invitado/VM)</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Uso del rol CloudAdmin</t>
-        </is>
-      </c>
-      <c r="D50" s="21" t="inlineStr">
-        <is>
-          <t>La cuenta de CloudAdmin en vCenter IdP solo se usa como cuenta de emergencia (break-glass)</t>
-        </is>
-      </c>
+          <t>Implementación de los agentes de Log Analytics en cargas de trabajo de máquinas virtuales invitadas de Azure VMware Solution</t>
+        </is>
+      </c>
+      <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -3215,17 +2844,13 @@
         </is>
       </c>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="inlineStr">
-        <is>
-          <t>Best practice</t>
-        </is>
-      </c>
+      <c r="H50" s="15" t="n"/>
       <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>8e477d2f-8004-3dd0-93d6-0aece9e1b2fb</t>
+          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3236,24 +2861,20 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seguridad </t>
+          <t>Gobernanza (invitado/VM)</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>¿Se ha implementado la gestión de identidades privilegiadas?</t>
-        </is>
-      </c>
-      <c r="D51" s="21" t="inlineStr">
-        <is>
-          <t>Para roles que administran el recurso de Azure VMware Solution en el Portal de Azure (no se permiten permisos permanentes)</t>
-        </is>
-      </c>
+          <t>Asegúrese de que dispone de una directiva y una solución de copia de seguridad documentadas e implementadas para las cargas de trabajo de máquina virtual de Azure VMware Solution</t>
+        </is>
+      </c>
+      <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -3265,17 +2886,13 @@
         </is>
       </c>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/privileged-identity-management/pim-configure</t>
-        </is>
-      </c>
+      <c r="H51" s="15" t="n"/>
       <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>00e0b729-f9be-f600-8c32-5ec0e8f2ed63</t>
+          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3286,24 +2903,20 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seguridad </t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>¿Se han implementado los informes de auditoría de Privileged Identity Management?</t>
-        </is>
-      </c>
-      <c r="D52" s="21" t="inlineStr">
-        <is>
-          <t>Para los roles de PIM de Azure VMware Solution</t>
-        </is>
-      </c>
+          <t>Uso de Microsoft Defender for Cloud para la supervisión del cumplimiento de las cargas de trabajo que se ejecutan en Azure VMware Solution</t>
+        </is>
+      </c>
+      <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -3315,17 +2928,13 @@
         </is>
       </c>
       <c r="G52" s="21" t="n"/>
-      <c r="H52" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/privileged-identity-management/pim-configure</t>
-        </is>
-      </c>
+      <c r="H52" s="15" t="n"/>
       <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>0842d45f-41a8-8274-1155-2f6ed554d315</t>
+          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3336,24 +2945,20 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seguridad </t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Limitar el uso de la cuenta CloudAdmin solo al acceso de emergencia</t>
-        </is>
-      </c>
-      <c r="D53" s="21" t="inlineStr">
-        <is>
-          <t>Práctica recomendada, consulte también Supervisión/Alertas</t>
-        </is>
-      </c>
+          <t>¿Se agregan las líneas base de cumplimiento aplicables a Microsoft Defender for Cloud?</t>
+        </is>
+      </c>
+      <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -3365,16 +2970,12 @@
         </is>
       </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="inlineStr">
-        <is>
-          <t>Best practice</t>
-        </is>
-      </c>
+      <c r="H53" s="15" t="n"/>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>915cbcd7-0640-eb7c-4162-9f33775de559</t>
+          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3385,27 +2986,23 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seguridad </t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Es un proceso definido para rotar periódicamente las credenciales de cloudadmin (vCenter) y admin (NSX)</t>
-        </is>
-      </c>
-      <c r="D54" s="21" t="inlineStr">
-        <is>
-          <t>Procedimiento operativo</t>
-        </is>
-      </c>
+          <t>¿Se evaluó la residencia de datos al seleccionar las regiones de Azure que se usarán para la implementación de Azure VMware Solution?</t>
+        </is>
+      </c>
+      <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3414,17 +3011,13 @@
         </is>
       </c>
       <c r="G54" s="21" t="n"/>
-      <c r="H54" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/rotate-cloudadmin-credentials?tabs=azure-portal</t>
-        </is>
-      </c>
+      <c r="H54" s="15" t="n"/>
       <c r="I54" s="15" t="n"/>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>7effa0c0-9172-e8e4-726a-67dbea8be40a</t>
+          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3435,27 +3028,23 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>AVS VM Management (Azure Arc)</t>
-        </is>
-      </c>
-      <c r="D55" s="21" t="inlineStr">
-        <is>
-          <t>Use Azure ARC for Servers para controlar correctamente las cargas de trabajo que se ejecutan en Azure VMware Solution mediante tecnologías nativas de Azure (Azure ARC for Azure VMware Solution aún no está disponible)</t>
-        </is>
-      </c>
+          <t>¿Son claras y documentadas las implicaciones del procesamiento de datos (proveedor de servicios / modelo de consumidor de servicios)?</t>
+        </is>
+      </c>
+      <c r="D55" s="21" t="n"/>
       <c r="E55" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3464,16 +3053,12 @@
         </is>
       </c>
       <c r="G55" s="21" t="n"/>
-      <c r="H55" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-arc/vmware-vsphere/overview</t>
-        </is>
-      </c>
+      <c r="H55" s="15" t="n"/>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>8f426fd0-d73b-d398-1f6f-df0cbe262a82</t>
+          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3489,22 +3074,18 @@
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Directiva de Azure</t>
-        </is>
-      </c>
-      <c r="D56" s="21" t="inlineStr">
-        <is>
-          <t>Uso de Azure Policy para incorporar cargas de trabajo de Azure VMware Solution en las soluciones de administración, supervisión y seguridad de Azure</t>
-        </is>
-      </c>
+          <t>Creación de paneles para habilitar la información principal de supervisión de Azure VMware Solution</t>
+        </is>
+      </c>
+      <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3513,16 +3094,12 @@
         </is>
       </c>
       <c r="G56" s="21" t="n"/>
-      <c r="H56" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/governance/policy/overview</t>
-        </is>
-      </c>
+      <c r="H56" s="15" t="n"/>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>11dbe773-e380-9191-1418-e886fa7a6fd0</t>
+          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3538,22 +3115,18 @@
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Bloqueos de recursos</t>
-        </is>
-      </c>
-      <c r="D57" s="21" t="inlineStr">
-        <is>
-          <t>Para implementaciones manuales, considere la posibilidad de implementar bloqueos de recursos para evitar acciones accidentales en la nube privada de Azure VMware Solution</t>
-        </is>
-      </c>
+          <t>Creación de alertas de advertencia para umbrales críticos para alertas automáticas sobre el rendimiento de Azure VMware Solution (CPU &gt;80 %, memoria media &gt;80 %, vSAN &gt;70 %)</t>
+        </is>
+      </c>
+      <c r="D57" s="21" t="n"/>
       <c r="E57" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3562,16 +3135,12 @@
         </is>
       </c>
       <c r="G57" s="21" t="n"/>
-      <c r="H57" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-resource-manager/management/lock-resources?tabs=json#configure-locks</t>
-        </is>
-      </c>
+      <c r="H57" s="15" t="n"/>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>1e59c639-9b7e-a60b-5e93-3798c1aff5db</t>
+          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3587,22 +3156,18 @@
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Ejecutar libros</t>
-        </is>
-      </c>
-      <c r="D58" s="21" t="inlineStr">
-        <is>
-          <t>Para las implementaciones manuales, toda la configuración y las implementaciones deben estar documentadas</t>
-        </is>
-      </c>
+          <t>Asegúrese de que se crea una alerta crítica para supervisar si el consumo de vSAN es inferior al 75 %, ya que se trata de un umbral de soporte de VMware</t>
+        </is>
+      </c>
+      <c r="D58" s="21" t="n"/>
       <c r="E58" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3611,16 +3176,12 @@
         </is>
       </c>
       <c r="G58" s="21" t="n"/>
-      <c r="H58" s="15" t="inlineStr">
-        <is>
-          <t>Make sure to create your own runbook on the deployment of AVS.</t>
-        </is>
-      </c>
+      <c r="H58" s="15" t="n"/>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>8f2c46aa-ca1b-cad3-3ac9-213dfc0a265e</t>
+          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3636,22 +3197,18 @@
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Convenciones de nomenclatura para claves de autenticación</t>
-        </is>
-      </c>
-      <c r="D59" s="21" t="inlineStr">
-        <is>
-          <t>Implementar nombres humanos comprensibles para las claves de autorización ExR para permitir una fácil identificación del propósito / uso de las claves</t>
-        </is>
-      </c>
+          <t>Asegúrese de que las alertas están configuradas para las alertas y notificaciones de Azure Service Health</t>
+        </is>
+      </c>
+      <c r="D59" s="21" t="n"/>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3660,16 +3217,12 @@
         </is>
       </c>
       <c r="G59" s="21" t="n"/>
-      <c r="H59" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-best-practices/resource-abbreviations</t>
-        </is>
-      </c>
+      <c r="H59" s="15" t="n"/>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>86b314f9-1f1e-317a-4dfb-cf510ad4a030</t>
+          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3680,24 +3233,20 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
+          <t>Administración</t>
+        </is>
+      </c>
+      <c r="B60" s="21" t="inlineStr">
+        <is>
           <t>Monitorización</t>
         </is>
       </c>
-      <c r="B60" s="21" t="inlineStr">
-        <is>
-          <t>Alertas</t>
-        </is>
-      </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Crear alertas de advertencia para umbrales críticos </t>
-        </is>
-      </c>
-      <c r="D60" s="21" t="inlineStr">
-        <is>
-          <t>Para alertas automáticas sobre el rendimiento de Azure VMware Solution (CPU &gt;80%, memoria promedio &gt;80%, vSAN &gt;70%)</t>
-        </is>
-      </c>
+          <t>Configure el registro de Azure VMware Solution para que se envíe a una cuenta de Azure Storage o Azure EventHub para su procesamiento</t>
+        </is>
+      </c>
+      <c r="D60" s="21" t="n"/>
       <c r="E60" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -3709,16 +3258,12 @@
         </is>
       </c>
       <c r="G60" s="21" t="n"/>
-      <c r="H60" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-alerts-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H60" s="15" t="n"/>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>e22a2d99-eb71-7d7c-07af-6d4cdb1d4443</t>
+          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3729,27 +3274,23 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
+          <t>Administración</t>
+        </is>
+      </c>
+      <c r="B61" s="21" t="inlineStr">
+        <is>
           <t>Monitorización</t>
         </is>
       </c>
-      <c r="B61" s="21" t="inlineStr">
-        <is>
-          <t>Alertas</t>
-        </is>
-      </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Crear alertas críticas de consumo de vSAN</t>
-        </is>
-      </c>
-      <c r="D61" s="21" t="inlineStr">
-        <is>
-          <t>para alertas automáticas sobre el rendimiento de Azure VMware Solution (CPU &gt;80%, memoria promedio &gt;80%, vSAN &gt;70%)</t>
-        </is>
-      </c>
+          <t>Si se requiere una visión profunda de VMware vSphere: ¿Se utiliza vRealize Operations o vRealize Network Insights en la solución?</t>
+        </is>
+      </c>
+      <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3758,16 +3299,12 @@
         </is>
       </c>
       <c r="G61" s="21" t="n"/>
-      <c r="H61" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-alerts-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H61" s="15" t="n"/>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>6d02f159-627d-79bf-a931-fab6d947eda2</t>
+          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3778,27 +3315,23 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>Alertas</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Configuración para alertas y notificaciones de Azure Service Health</t>
-        </is>
-      </c>
-      <c r="D62" s="21" t="inlineStr">
-        <is>
-          <t>Proporciona alertas de plataforma (generadas por Microsoft)</t>
-        </is>
-      </c>
+          <t>Asegúrese de que la directiva de almacenamiento de vSAN para las máquinas virtuales NO sea la directiva de almacenamiento predeterminada, ya que esta directiva aplica el aprovisionamiento grueso</t>
+        </is>
+      </c>
+      <c r="D62" s="21" t="n"/>
       <c r="E62" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3807,16 +3340,12 @@
         </is>
       </c>
       <c r="G62" s="21" t="n"/>
-      <c r="H62" s="15" t="inlineStr">
-        <is>
-          <t>https://www.virtualworkloads.com/2021/04/azure-vmware-solution-azure-service-health/</t>
-        </is>
-      </c>
+      <c r="H62" s="15" t="n"/>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>1cc97b39-2c7e-246f-6d73-789cfebfe951</t>
+          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3827,24 +3356,20 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Copia de seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Política de copia de seguridad</t>
-        </is>
-      </c>
-      <c r="D63" s="21" t="inlineStr">
-        <is>
-          <t>Asegúrese de tener una directiva y solución de copia de seguridad documentada e implementada para cargas de trabajo de máquinas virtuales de Azure VMware Solution</t>
-        </is>
-      </c>
+          <t>Asegúrese de que las bibliotecas de contenido de vSphere no se coloquen en vSAN, ya que vSAN es un recurso finito</t>
+        </is>
+      </c>
+      <c r="D63" s="21" t="n"/>
       <c r="E63" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -3856,17 +3381,13 @@
         </is>
       </c>
       <c r="G63" s="21" t="n"/>
-      <c r="H63" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/set-up-backup-server-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H63" s="15" t="n"/>
       <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>0962606c-e3b4-62a9-5661-e4ffd62a4509</t>
+          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3877,24 +3398,20 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Capacidad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Directiva sobre densidad y eficiencia de hosts ESXi</t>
-        </is>
-      </c>
-      <c r="D64" s="21" t="inlineStr">
-        <is>
-          <t>Tenga en cuenta el tiempo de entrega para solicitar nuevos nodos</t>
-        </is>
-      </c>
+          <t>Asegúrese de que los repositorios de datos de la solución de copia de seguridad se almacenen fuera del almacenamiento de vSAN. Ya sea en Azure nativo o en un almacén de datos respaldado por un grupo de discos</t>
+        </is>
+      </c>
+      <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -3906,17 +3423,13 @@
         </is>
       </c>
       <c r="G64" s="21" t="n"/>
-      <c r="H64" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-alerts-for-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H64" s="15" t="n"/>
       <c r="I64" s="15" t="n"/>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>4ec7ccfb-795e-897e-4a84-fd31c04eadc6</t>
+          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3927,24 +3440,20 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>Costos</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que existe un buen proceso de administración de costos para Azure VMware Solution - </t>
-        </is>
-      </c>
-      <c r="D65" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Se puede usar Azure Cost Management: una opción, poner AVS en su propia suscripción. </t>
-        </is>
-      </c>
+          <t>Asegúrese de que las cargas de trabajo que se ejecutan en Azure VMware Solution se administran de forma híbrida mediante Azure Arc para servidores (Arc para Azure VMware Solution está en versión preliminar)</t>
+        </is>
+      </c>
+      <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -3956,17 +3465,13 @@
         </is>
       </c>
       <c r="G65" s="21" t="n"/>
-      <c r="H65" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/govern</t>
-        </is>
-      </c>
+      <c r="H65" s="15" t="n"/>
       <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>7f8f175d-13f4-5298-9e61-0bc7e9fcc279</t>
+          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3977,24 +3482,20 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>Salpicadero</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Panel de control del monitor de conexión</t>
-        </is>
-      </c>
-      <c r="D66" s="21" t="inlineStr">
-        <is>
-          <t>Creación de paneles para habilitar la información básica de supervisión de Azure VMware Solution</t>
-        </is>
-      </c>
+          <t>Asegúrese de que las cargas de trabajo que se ejecutan en Azure VMware Solution se supervisan mediante Azure Log Analytics y Azure Monitor</t>
+        </is>
+      </c>
+      <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -4006,16 +3507,12 @@
         </is>
       </c>
       <c r="G66" s="21" t="n"/>
-      <c r="H66" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-portal/azure-portal-dashboards</t>
-        </is>
-      </c>
+      <c r="H66" s="15" t="n"/>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>01e689e0-7c6c-b58f-37bd-4d6b9b1b9c74</t>
+          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -4026,24 +3523,20 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>Registros y métricas</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Configuración del registro de Azure VMware Solution </t>
-        </is>
-      </c>
-      <c r="D67" s="21" t="inlineStr">
-        <is>
-          <t>Enviar a una cuenta de Azure Storage o Azure EventHub para su procesamiento (está pendiente el envío directo a Log Analytics)</t>
-        </is>
-      </c>
+          <t>Inclusión de cargas de trabajo que se ejecutan en Azure VMware Solution en las herramientas de administración de actualizaciones existentes o en Azure Update Management</t>
+        </is>
+      </c>
+      <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -4055,17 +3548,13 @@
         </is>
       </c>
       <c r="G67" s="21" t="n"/>
-      <c r="H67" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-vmware-syslogs</t>
-        </is>
-      </c>
+      <c r="H67" s="15" t="n"/>
       <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>f9afdcc9-649d-d840-9fb5-a3c0edcc697d</t>
+          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -4076,24 +3565,20 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>Registros y métricas</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Operaciones de vRealize</t>
-        </is>
-      </c>
-      <c r="D68" s="21" t="inlineStr">
-        <is>
-          <t>Debe ser local, implementar si está disponible</t>
-        </is>
-      </c>
+          <t>Uso de Azure Policy para incorporar cargas de trabajo de Azure VMware Solution en las soluciones de administración, supervisión y seguridad de Azure</t>
+        </is>
+      </c>
+      <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -4105,17 +3590,13 @@
         </is>
       </c>
       <c r="G68" s="21" t="n"/>
-      <c r="H68" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Is vROPS or vRealize Network Insight going to be used? </t>
-        </is>
-      </c>
+      <c r="H68" s="15" t="n"/>
       <c r="I68" s="15" t="n"/>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>7cbac8c3-4eda-d5d9-9bda-c6b5abba9fb6</t>
+          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4126,27 +3607,23 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>Registros y métricas</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Registro de VM de AVS</t>
-        </is>
-      </c>
-      <c r="D69" s="21" t="inlineStr">
-        <is>
-          <t>Asegúrese de que las cargas de trabajo que se ejecutan en Azure VMware Solution se supervisan mediante Azure Log Analytics y Azure Monitor</t>
-        </is>
-      </c>
+          <t>Cuando se use ANF para ampliar el almacenamiento de Azure VMware Solution, asegúrese de que se usa solo en el nivel de máquina virtual por ahora (ANF como almacén de datos NFS todavía está en versión preliminar privada)</t>
+        </is>
+      </c>
+      <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4155,17 +3632,13 @@
         </is>
       </c>
       <c r="G69" s="21" t="n"/>
-      <c r="H69" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-vmware-syslogs</t>
-        </is>
-      </c>
+      <c r="H69" s="15" t="n"/>
       <c r="I69" s="15" t="n"/>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>b243521a-644d-f865-7fb6-21f9019c0dd2</t>
+          <t>ab79b188-dab8-4193-8c9f-c9d1bb77036f</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4176,24 +3649,20 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Supervisión de ExpressRoute y/o conexiones VPN </t>
-        </is>
-      </c>
-      <c r="D70" s="21" t="inlineStr">
-        <is>
-          <t>Entre el entorno local y Azure se supervisan mediante 'monitor de conexión'</t>
-        </is>
-      </c>
+          <t>Asegúrese de que las cargas de trabajo que se ejecutan en Azure VMware Solution se incorporan a Microsoft Defender for Cloud</t>
+        </is>
+      </c>
+      <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -4205,17 +3674,13 @@
         </is>
       </c>
       <c r="G70" s="21" t="n"/>
-      <c r="H70" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/network-watcher/connection-monitor-create-using-portal</t>
-        </is>
-      </c>
+      <c r="H70" s="15" t="n"/>
       <c r="I70" s="15" t="n"/>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>2ca97d91-dd36-7229-b668-01036ccc3cd3</t>
+          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4226,24 +3691,20 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Copia de seguridad</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Supervisión desde un recurso nativo de Azure a una máquina virtual de Azure VMware Solution</t>
-        </is>
-      </c>
-      <c r="D71" s="21" t="inlineStr">
-        <is>
-          <t>Para supervisar la conexión ExpressRoute back-end de Azure VMware Solution (Azure nativo de AVS)</t>
-        </is>
-      </c>
+          <t>Asegúrese de que las copias de seguridad no se almacenen en vSAN, ya que vSAN es un recurso finito</t>
+        </is>
+      </c>
+      <c r="D71" s="21" t="n"/>
       <c r="E71" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -4255,17 +3716,13 @@
         </is>
       </c>
       <c r="G71" s="21" t="n"/>
-      <c r="H71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/network-watcher/connection-monitor-create-using-portal</t>
-        </is>
-      </c>
+      <c r="H71" s="15" t="n"/>
       <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>99209143-60fe-19f0-5633-8b5671277ba5</t>
+          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4276,24 +3733,20 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Recuperación ante desastres</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Supervisión desde un recurso local a una máquina virtual de Azure VMware Solution</t>
-        </is>
-      </c>
-      <c r="D72" s="21" t="inlineStr">
-        <is>
-          <t>Para supervisar cargas de trabajo de extremo a extremo, locales a AVS</t>
-        </is>
-      </c>
+          <t>Uso de VMware Site Recovery Manager cuando ambos sitios son Azure VMware Solution</t>
+        </is>
+      </c>
+      <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -4305,17 +3758,13 @@
         </is>
       </c>
       <c r="G72" s="21" t="n"/>
-      <c r="H72" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/network-watcher/connection-monitor-create-using-portal</t>
-        </is>
-      </c>
+      <c r="H72" s="15" t="n"/>
       <c r="I72" s="15" t="n"/>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>b9e5867c-57d3-036f-fb1b-3f0a71664efe</t>
+          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4326,24 +3775,20 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Recuperación ante desastres</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">La auditoría y el registro se implementan para Internet entrante </t>
-        </is>
-      </c>
-      <c r="D73" s="21" t="inlineStr">
-        <is>
-          <t>Seguimiento de solicitudes a cargas de trabajo basadas en Azure VMware Solution y Azure VMware Solution</t>
-        </is>
-      </c>
+          <t>Uso de Azure Site Recovery cuando la tecnología de recuperación ante desastres sea IaaS nativa de Azure</t>
+        </is>
+      </c>
+      <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -4355,17 +3800,13 @@
         </is>
       </c>
       <c r="G73" s="21" t="n"/>
-      <c r="H73" s="15" t="inlineStr">
-        <is>
-          <t>Firewall logging and alerting rules are configured (Azure Firewall or 3rd party)</t>
-        </is>
-      </c>
+      <c r="H73" s="15" t="n"/>
       <c r="I73" s="15" t="n"/>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>4af7c5f7-e5e9-bedf-a8cf-314b81735962</t>
+          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4376,27 +3817,23 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Recuperación ante desastres</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monitoreo de sesiones  </t>
-        </is>
-      </c>
-      <c r="D74" s="21" t="inlineStr">
-        <is>
-          <t>Se implementa para conexiones salientes a Internet desde cargas de trabajo basadas en Azure VMware Solution o Azure VMware Solution para identificar actividades sospechosas o maliciosas</t>
-        </is>
-      </c>
+          <t>Utilice planes de recuperación automatizados con cualquiera de las soluciones ante desastres, evite las tareas manuales tanto como sea posible</t>
+        </is>
+      </c>
+      <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4405,17 +3842,13 @@
         </is>
       </c>
       <c r="G74" s="21" t="n"/>
-      <c r="H74" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/eslz-network-topology-connectivity</t>
-        </is>
-      </c>
+      <c r="H74" s="15" t="n"/>
       <c r="I74" s="15" t="n"/>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>74be60a3-cfac-f057-eda6-3ee087e805d5</t>
+          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4426,24 +3859,20 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>VMWare</t>
+          <t>Recuperación ante desastres</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Registro y diagnóstico</t>
-        </is>
-      </c>
-      <c r="D75" s="21" t="inlineStr">
-        <is>
-          <t>Habilitación del registro de diagnóstico y métricas en Azure VMware Solution</t>
-        </is>
-      </c>
+          <t>Usar el par de regiones geopolíticas como entorno secundario de recuperación ante desastres</t>
+        </is>
+      </c>
+      <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -4455,17 +3884,13 @@
         </is>
       </c>
       <c r="G75" s="21" t="n"/>
-      <c r="H75" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-vmware-syslogs</t>
-        </is>
-      </c>
+      <c r="H75" s="15" t="n"/>
       <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>a434b3b5-f258-0845-cd76-d7df6ef5890e</t>
+          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4476,27 +3901,23 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>VMware</t>
+          <t>Recuperación ante desastres</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Agentes de Log Analytics implementados en cargas de trabajo de VM invitadas de Azure VMware Solution</t>
-        </is>
-      </c>
-      <c r="D76" s="21" t="inlineStr">
-        <is>
-          <t>Supervisar las cargas de trabajo de AVS (cada máquina virtual en AVS)</t>
-        </is>
-      </c>
+          <t>Utilice 2 espacios de direcciones diferentes entre las regiones, por ejemplo: 10.0.0.0/16 y 192.168.0.0/16 para las diferentes regiones</t>
+        </is>
+      </c>
+      <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4505,17 +3926,13 @@
         </is>
       </c>
       <c r="G76" s="21" t="n"/>
-      <c r="H76" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-monitor/agents/agent-windows?tabs=setup-wizard</t>
-        </is>
-      </c>
+      <c r="H76" s="15" t="n"/>
       <c r="I76" s="15" t="n"/>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>fb00b69a-83ec-ce72-446e-6c23a0cab09a</t>
+          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4526,24 +3943,20 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Hub &amp; Spoke</t>
+          <t>Recuperación ante desastres</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enrutamiento Norte/Sur a través de Az Firewall o 3ª parte </t>
-        </is>
-      </c>
-      <c r="D77" s="21" t="inlineStr">
-        <is>
-          <t>Decisión sobre el flujo de tráfico</t>
-        </is>
-      </c>
+          <t>¿Se usará Global Reach de ExpressRoute para la conectividad entre las nubes privadas de Azure VMware Solution principal y secundaria, o el enrutamiento se realiza a través de aplicaciones virtuales de red?</t>
+        </is>
+      </c>
+      <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -4555,17 +3968,13 @@
         </is>
       </c>
       <c r="G77" s="21" t="n"/>
-      <c r="H77" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-hub-and-spoke</t>
-        </is>
-      </c>
+      <c r="H77" s="15" t="n"/>
       <c r="I77" s="15" t="n"/>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>a1354b87-e18e-bf5c-c50b-8ddf0540e971</t>
+          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4576,24 +3985,20 @@
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>Hub &amp; Spoke</t>
+          <t>Continuidad del negocio</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Este Oeste (interno a Azure)</t>
-        </is>
-      </c>
-      <c r="D78" s="21" t="inlineStr">
-        <is>
-          <t>Decisión de enrutar el tráfico de Azure a Azure a través de Firewall, no E/W entre cargas de trabajo de AVS (internas a AVS)</t>
-        </is>
-      </c>
+          <t>Utilice MABS como su solución de copia de seguridad</t>
+        </is>
+      </c>
+      <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -4605,17 +4010,13 @@
         </is>
       </c>
       <c r="G78" s="21" t="n"/>
-      <c r="H78" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-hub-and-spoke</t>
-        </is>
-      </c>
+      <c r="H78" s="15" t="n"/>
       <c r="I78" s="15" t="n"/>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>29a8a499-ec31-f336-3266-0895f035e379</t>
+          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4626,24 +4027,20 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>Hub &amp; Spoke</t>
+          <t>Continuidad del negocio</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>ExR sin alcance global</t>
-        </is>
-      </c>
-      <c r="D79" s="21" t="inlineStr">
-        <is>
-          <t>Requiere un NVA de terceros con Azure Route Server - Escenario 2 (consulte el vínculo)</t>
-        </is>
-      </c>
+          <t>Implemente la solución de copia de seguridad en la misma región que la nube privada de Azure VMware Solution</t>
+        </is>
+      </c>
+      <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -4655,17 +4052,13 @@
         </is>
       </c>
       <c r="G79" s="21" t="n"/>
-      <c r="H79" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/eslz-network-topology-connectivity</t>
-        </is>
-      </c>
+      <c r="H79" s="15" t="n"/>
       <c r="I79" s="15" t="n"/>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>ebd3cc3c-ac3d-4293-950d-cecd8445a523</t>
+          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4676,24 +4069,20 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>Hub &amp; Spoke</t>
+          <t>Continuidad del negocio</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Servidor de enrutamiento </t>
-        </is>
-      </c>
-      <c r="D80" s="21" t="inlineStr">
-        <is>
-          <t>Cuando se usa el servidor de rutas, asegúrese de que no se propaguen más de 200 rutas desde el servidor de rutas a la puerta de enlace ExR a las instalaciones (límite ARS). Importante cuando se utiliza MoN</t>
-        </is>
-      </c>
+          <t>Es preferible implementar MABS fuera del SDDC como IaaS nativa de Azure</t>
+        </is>
+      </c>
+      <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -4705,17 +4094,13 @@
         </is>
       </c>
       <c r="G80" s="21" t="n"/>
-      <c r="H80" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/route-server/route-server-faq</t>
-        </is>
-      </c>
+      <c r="H80" s="15" t="n"/>
       <c r="I80" s="15" t="n"/>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>ffb5c5ca-bd89-ff1b-8b73-8a54d503d506</t>
+          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4726,27 +4111,23 @@
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Continuidad del negocio</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Punto(s) de salida</t>
-        </is>
-      </c>
-      <c r="D81" s="21" t="inlineStr">
-        <is>
-          <t>A través de las instalaciones, Az Firewall, 3rd Party, IP pública de NSX-T</t>
-        </is>
-      </c>
+          <t>¿Existe un proceso para solicitar una restauración de los componentes de VMware administrados por la plataforma Azure?</t>
+        </is>
+      </c>
+      <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4755,17 +4136,13 @@
         </is>
       </c>
       <c r="G81" s="21" t="n"/>
-      <c r="H81" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-design-public-internet-access</t>
-        </is>
-      </c>
+      <c r="H81" s="15" t="n"/>
       <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>a4070dad-3def-818d-e9f7-be440d10e7de</t>
+          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4776,27 +4153,23 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Automatización de la plataforma</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Estrategia de implementación</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Aplicaciones orientadas a Internet</t>
-        </is>
-      </c>
-      <c r="D82" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Az Firewall, NVA de 3ª parte, Application Gateway, Azure Frontdoor </t>
-        </is>
-      </c>
+          <t>En el caso de las implementaciones manuales, se deben documentar todas las configuraciones e implementaciones</t>
+        </is>
+      </c>
+      <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4805,17 +4178,13 @@
         </is>
       </c>
       <c r="G82" s="21" t="n"/>
-      <c r="H82" s="15" t="inlineStr">
-        <is>
-          <t>Research and choose optimal solution for each application</t>
-        </is>
-      </c>
+      <c r="H82" s="15" t="n"/>
       <c r="I82" s="15" t="n"/>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>e942c03d-beaa-3d9f-0526-9b26cd5e9937</t>
+          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4826,27 +4195,23 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Automatización de la plataforma</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>Enrutamiento</t>
+          <t>Estrategia de implementación</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">¿Cuándo se entiende el límite de ruta del servidor de ruta? </t>
-        </is>
-      </c>
-      <c r="D83" s="21" t="inlineStr">
-        <is>
-          <t>Asegúrese de que no se propaguen más de 200 rutas desde el servidor de rutas a la puerta de enlace ExR y al entorno local (límite ARS). Importante cuando se utiliza MoN</t>
-        </is>
-      </c>
+          <t>En el caso de las implementaciones manuales, considere la posibilidad de implementar bloqueos de recursos para evitar acciones accidentales en la nube privada de Azure VMware Solution</t>
+        </is>
+      </c>
+      <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4855,17 +4220,13 @@
         </is>
       </c>
       <c r="G83" s="21" t="n"/>
-      <c r="H83" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/route-server/route-server-faq#route-server-limits</t>
-        </is>
-      </c>
+      <c r="H83" s="15" t="n"/>
       <c r="I83" s="15" t="n"/>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>e778a2ec-b4d7-1d27-574c-14476b167d37</t>
+          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4876,27 +4237,23 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Automatización de la plataforma</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Implementación automatizada</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">¿Es DDoS la protección estándar de las direcciones IP públicas?  </t>
-        </is>
-      </c>
-      <c r="D84" s="21" t="inlineStr">
-        <is>
-          <t>(Puerta de enlace VPN, AppGW, FrontDoor, equilibrador de carga, máquinas virtuales (etc.) (Quitar: habilitado en la subred de puerta de enlace ExR/VPN en Azure)</t>
-        </is>
-      </c>
+          <t>Para implementaciones automatizadas, implemente una nube privada mínima y escale según sea necesario</t>
+        </is>
+      </c>
+      <c r="D84" s="21" t="n"/>
       <c r="E84" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4905,17 +4262,13 @@
         </is>
       </c>
       <c r="G84" s="21" t="n"/>
-      <c r="H84" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/ddos-protection/manage-ddos-protection</t>
-        </is>
-      </c>
+      <c r="H84" s="15" t="n"/>
       <c r="I84" s="15" t="n"/>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>66c97b30-81b9-139a-cc76-dd1d94aef42a</t>
+          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4926,27 +4279,23 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Automatización de la plataforma</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Implementación automatizada</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Usar una estación de trabajo de acceso privilegiado (PAW) dedicada</t>
-        </is>
-      </c>
-      <c r="D85" s="21" t="inlineStr">
-        <is>
-          <t>Para administrar Azure VMware Solution, vCenter, NSX Manager y HCX Manager</t>
-        </is>
-      </c>
+          <t>En el caso de las implementaciones automatizadas, solicite o reserve una cuota antes de iniciar la implementación</t>
+        </is>
+      </c>
+      <c r="D85" s="21" t="n"/>
       <c r="E85" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4955,17 +4304,13 @@
         </is>
       </c>
       <c r="G85" s="21" t="n"/>
-      <c r="H85" s="15" t="inlineStr">
-        <is>
-          <t>Best practice: Bastion or 3rd party tool</t>
-        </is>
-      </c>
+      <c r="H85" s="15" t="n"/>
       <c r="I85" s="15" t="n"/>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>d43da920-4ecc-a4e9-dd45-a2986ce81d32</t>
+          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4976,27 +4321,23 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Automatización de la plataforma</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>Inspección de tráfico</t>
+          <t>Implementación automatizada</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Este Oeste (Interno a AVS)</t>
-        </is>
-      </c>
-      <c r="D86" s="21" t="inlineStr">
-        <is>
-          <t>Usar NSX-T para la inspección entre vmware-traffic</t>
-        </is>
-      </c>
+          <t>En el caso de la implementación automatizada, asegúrese de que se crean bloqueos de recursos relevantes a través de la automatización o a través de Azure Policy para una gobernanza adecuada</t>
+        </is>
+      </c>
+      <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -5005,17 +4346,13 @@
         </is>
       </c>
       <c r="G86" s="21" t="n"/>
-      <c r="H86" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-NSX-T-Data-Center/3.2/administration/GUID-F6685367-7AA1-4771-927E-ED77727CFDA3.html</t>
-        </is>
-      </c>
+      <c r="H86" s="15" t="n"/>
       <c r="I86" s="15" t="n"/>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>a2dac74f-5380-6e39-25e6-f13b99ece51f</t>
+          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -5026,27 +4363,23 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Automatización de la plataforma</t>
         </is>
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>vWAN</t>
+          <t>Conectividad automatizada</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Usar Secure Hub (Azure Firewall o 3º participante)</t>
-        </is>
-      </c>
-      <c r="D87" s="21" t="inlineStr">
-        <is>
-          <t>Decisión sobre si utilizar o no Secure hub para E/W y tráfico de Internet - requiere alcance global</t>
-        </is>
-      </c>
+          <t>Implemente nombres comprensibles para las claves de autorización ExR a fin de permitir una fácil identificación de la finalidad y el uso de las claves</t>
+        </is>
+      </c>
+      <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -5055,17 +4388,13 @@
         </is>
       </c>
       <c r="G87" s="21" t="n"/>
-      <c r="H87" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/networking/hub-spoke-vwan-architecture</t>
-        </is>
-      </c>
+      <c r="H87" s="15" t="n"/>
       <c r="I87" s="15" t="n"/>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>3f621543-dfac-c471-54a6-7b2849b6909a</t>
+          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -5076,27 +4405,23 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Automatización de la plataforma</t>
         </is>
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>vWAN</t>
+          <t>Conectividad automatizada</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Este Oeste (interno a Azure)</t>
-        </is>
-      </c>
-      <c r="D88" s="21" t="inlineStr">
-        <is>
-          <t>Decisión de enrutar el tráfico de Azure a Azure a través de Firewall, no E/W entre cargas de trabajo de AVS (internas a AVS)</t>
-        </is>
-      </c>
+          <t>Uso de Key Vault para almacenar secretos y claves de autorización cuando se usan principios de servicio independientes para implementar Azure VMware Solution y ExpressRoute</t>
+        </is>
+      </c>
+      <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -5105,17 +4430,13 @@
         </is>
       </c>
       <c r="G88" s="21" t="n"/>
-      <c r="H88" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/firewall-manager/secure-cloud-network</t>
-        </is>
-      </c>
+      <c r="H88" s="15" t="n"/>
       <c r="I88" s="15" t="n"/>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>d7af5670-1b39-d95d-6da2-8d660dfbe16b</t>
+          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -5126,27 +4447,23 @@
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="21" t="inlineStr">
         <is>
-          <t>Otros servicios/operaciones</t>
+          <t>Automatización de la plataforma</t>
         </is>
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>Báscula automatizada</t>
+          <t>Conectividad automatizada</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Planificación de operaciones de escalabilidad horizontal</t>
-        </is>
-      </c>
-      <c r="D89" s="21" t="inlineStr">
-        <is>
-          <t>Cuando tenga la intención de usar el escalado horizontal automatizado, asegúrese de solicitar una cuota suficiente de Azure VMware Solution para las suscripciones que ejecutan Azure VMware Solution</t>
-        </is>
-      </c>
+          <t>Defina dependencias de recursos para serializar acciones en IaC cuando sea necesario implementar muchos recursos en Azure VMware Solution, ya que Azure VMware Solution solo admite un número limitado de operaciones paralelas.</t>
+        </is>
+      </c>
+      <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5155,17 +4472,13 @@
         </is>
       </c>
       <c r="G89" s="21" t="n"/>
-      <c r="H89" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/configure-nsx-network-components-azure-portal</t>
-        </is>
-      </c>
+      <c r="H89" s="15" t="n"/>
       <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>7d049005-eb35-4a93-50a5-3b31a9f61161</t>
+          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5176,27 +4489,23 @@
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="21" t="inlineStr">
         <is>
-          <t>Otros servicios/operaciones</t>
+          <t>Automatización de la plataforma</t>
         </is>
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>Báscula automatizada</t>
+          <t>Conectividad automatizada</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Escala en la planificación de operaciones</t>
-        </is>
-      </c>
-      <c r="D90" s="21" t="inlineStr">
-        <is>
-          <t>Cuando tenga la intención de utilizar la escalabilidad horizontal automatizada, asegúrese de tener en cuenta los requisitos de la directiva de almacenamiento antes de realizar dicha acción.</t>
-        </is>
-      </c>
+          <t>Al realizar la configuración automatizada de segmentos de NSX-T con una única puerta de enlace de nivel 1, use las API de Azure Portal en lugar de las API de NSX-Manager</t>
+        </is>
+      </c>
+      <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5205,17 +4514,13 @@
         </is>
       </c>
       <c r="G90" s="21" t="n"/>
-      <c r="H90" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/eslz-platform-automation-and-devops#automated-scale</t>
-        </is>
-      </c>
+      <c r="H90" s="15" t="n"/>
       <c r="I90" s="15" t="n"/>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>7242c1de-da37-27f3-1ddd-565ccccb8ece</t>
+          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5226,7 +4531,7 @@
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="21" t="inlineStr">
         <is>
-          <t>Otros servicios/operaciones</t>
+          <t>Automatización de la plataforma</t>
         </is>
       </c>
       <c r="B91" s="21" t="inlineStr">
@@ -5236,14 +4541,10 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Escalar la planeación de operaciones serializadas</t>
-        </is>
-      </c>
-      <c r="D91" s="21" t="inlineStr">
-        <is>
-          <t>Las operaciones de escalado siempre deben serializarse dentro de un único SDDC, ya que solo se puede realizar una operación de escala a la vez (incluso cuando se utilizan varios clústeres)</t>
-        </is>
-      </c>
+          <t>Si tiene la intención de usar el escalado horizontal automatizado, asegúrese de solicitar una cuota suficiente de Azure VMware Solution para las suscripciones que ejecutan Azure VMware Solution</t>
+        </is>
+      </c>
+      <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -5255,17 +4556,13 @@
         </is>
       </c>
       <c r="G91" s="21" t="n"/>
-      <c r="H91" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/eslz-platform-automation-and-devops#automated-scale</t>
-        </is>
-      </c>
+      <c r="H91" s="15" t="n"/>
       <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>3233e49e-62ce-97f3-8737-8230e771b694</t>
+          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5276,7 +4573,7 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>Otros servicios/operaciones</t>
+          <t>Automatización de la plataforma</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
@@ -5286,14 +4583,10 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Escale la planificación de operaciones de Rd</t>
-        </is>
-      </c>
-      <c r="D92" s="21" t="inlineStr">
-        <is>
-          <t>Considerar y validar las operaciones de escalado en soluciones de 3rd party utilizadas en la arquitectura (compatibles o no)</t>
-        </is>
-      </c>
+          <t>Cuando tenga la intención de usar la reducción horizontal automatizada, asegúrese de tener en cuenta los requisitos de la directiva de almacenamiento antes de realizar dicha acción</t>
+        </is>
+      </c>
+      <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -5305,17 +4598,13 @@
         </is>
       </c>
       <c r="G92" s="21" t="n"/>
-      <c r="H92" s="15" t="inlineStr">
-        <is>
-          <t>Best practice (testing)</t>
-        </is>
-      </c>
+      <c r="H92" s="15" t="n"/>
       <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>68161d66-5707-319b-e77d-9217da892593</t>
+          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5326,7 +4615,7 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>Otros servicios/operaciones</t>
+          <t>Automatización de la plataforma</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
@@ -5336,14 +4625,10 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Escale la máxima planificación de operaciones</t>
-        </is>
-      </c>
-      <c r="D93" s="21" t="inlineStr">
-        <is>
-          <t>Defina y aplique límites máximos de escalabilidad y salida para su entorno en las automatizaciones</t>
-        </is>
-      </c>
+          <t>Las operaciones de escalado siempre deben serializarse dentro de un único SDDC, ya que solo se puede realizar una operación de escalado a la vez (incluso cuando se utilizan varios clústeres)</t>
+        </is>
+      </c>
+      <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -5355,17 +4640,13 @@
         </is>
       </c>
       <c r="G93" s="21" t="n"/>
-      <c r="H93" s="15" t="inlineStr">
-        <is>
-          <t>Operational planning - understand workload requirements</t>
-        </is>
-      </c>
+      <c r="H93" s="15" t="n"/>
       <c r="I93" s="15" t="n"/>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>c32cb953-e860-f204-957a-c79d61202669</t>
+          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5376,7 +4657,7 @@
     <row r="94" ht="16.5" customHeight="1">
       <c r="A94" s="21" t="inlineStr">
         <is>
-          <t>Otros servicios/operaciones</t>
+          <t>Automatización de la plataforma</t>
         </is>
       </c>
       <c r="B94" s="21" t="inlineStr">
@@ -5386,14 +4667,10 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Supervisar las operaciones de escalado </t>
-        </is>
-      </c>
-      <c r="D94" s="21" t="inlineStr">
-        <is>
-          <t>Implementar reglas de supervisión para supervisar las operaciones de escalado automatizadas y supervisar el éxito y el fracaso para habilitar respuestas adecuadas (automatizadas)</t>
-        </is>
-      </c>
+          <t>Considerar y validar las operaciones de escalado en soluciones de terceros utilizadas en la arquitectura (compatibles o no)</t>
+        </is>
+      </c>
+      <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -5405,17 +4682,13 @@
         </is>
       </c>
       <c r="G94" s="21" t="n"/>
-      <c r="H94" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/eslz-management-and-monitoring</t>
-        </is>
-      </c>
+      <c r="H94" s="15" t="n"/>
       <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>7bd65a5e-7b5d-652d-dbea-fc6f73a42857</t>
+          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5426,24 +4699,20 @@
     <row r="95" ht="16.5" customHeight="1">
       <c r="A95" s="21" t="inlineStr">
         <is>
-          <t>Otros servicios/operaciones</t>
+          <t>Automatización de la plataforma</t>
         </is>
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Báscula automatizada</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Enlace privado</t>
-        </is>
-      </c>
-      <c r="D95" s="21" t="inlineStr">
-        <is>
-          <t>Considere el uso de Azure Private-Link al usar otros servicios nativos de Azure</t>
-        </is>
-      </c>
+          <t>Defina y aplique límites máximos de escalado vertical y horizontal para su entorno en las automatizaciones</t>
+        </is>
+      </c>
+      <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -5455,17 +4724,13 @@
         </is>
       </c>
       <c r="G95" s="21" t="n"/>
-      <c r="H95" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/private-link/private-link-overview</t>
-        </is>
-      </c>
+      <c r="H95" s="15" t="n"/>
       <c r="I95" s="15" t="n"/>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>95e374af-8a2a-2672-7ab7-b4a1be43ada7</t>
+          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5476,24 +4741,20 @@
     <row r="96" ht="16.5" customHeight="1">
       <c r="A96" s="21" t="inlineStr">
         <is>
-          <t>Otros servicios/operaciones</t>
+          <t>Automatización de la plataforma</t>
         </is>
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Báscula automatizada</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Aprovisionamiento de VLAN de VMware</t>
-        </is>
-      </c>
-      <c r="D96" s="21" t="inlineStr">
-        <is>
-          <t>Al realizar la configuración automatizada de segmentos de NSX-T con una única puerta de enlace de nivel 1, use las API del Portal de Azure en lugar de las API de NSX-Manager</t>
-        </is>
-      </c>
+          <t>Implemente reglas de supervisión para supervisar las operaciones de escalado automatizadas y supervisar el éxito y el fracaso para permitir respuestas adecuadas (automatizadas)</t>
+        </is>
+      </c>
+      <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -5505,17 +4766,13 @@
         </is>
       </c>
       <c r="G96" s="21" t="n"/>
-      <c r="H96" s="15" t="inlineStr">
-        <is>
-          <t>Best practice</t>
-        </is>
-      </c>
+      <c r="H96" s="15" t="n"/>
       <c r="I96" s="15" t="n"/>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>71eff90d-5ad7-ac60-6244-2a6f7d3c51f2</t>
+          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5524,1837 +4781,615 @@
       <c r="P96" s="25" t="n"/>
     </row>
     <row r="97" ht="16.5" customHeight="1">
-      <c r="A97" s="21" t="inlineStr">
-        <is>
-          <t>Planificación</t>
-        </is>
-      </c>
-      <c r="B97" s="21" t="inlineStr">
-        <is>
-          <t>Implementación previa</t>
-        </is>
-      </c>
-      <c r="C97" s="21" t="inlineStr">
-        <is>
-          <t>Región seleccionada</t>
-        </is>
-      </c>
-      <c r="D97" s="21" t="inlineStr">
-        <is>
-          <t>En qué región se implementará AVS</t>
-        </is>
-      </c>
-      <c r="E97" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A97" s="21" t="n"/>
+      <c r="B97" s="21" t="n"/>
+      <c r="C97" s="21" t="n"/>
+      <c r="D97" s="21" t="n"/>
+      <c r="E97" s="21" t="n"/>
       <c r="G97" s="21" t="n"/>
-      <c r="H97" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/windows-server/identity/ad-ds/plan/understanding-active-directory-site-topology</t>
-        </is>
-      </c>
+      <c r="H97" s="15" t="n"/>
       <c r="I97" s="15" t="n"/>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
-      <c r="L97" s="25" t="inlineStr">
-        <is>
-          <t>04e3a2f9-83b7-968a-1044-2811811a924b</t>
-        </is>
-      </c>
+      <c r="L97" s="25" t="n"/>
       <c r="M97" s="25" t="n"/>
       <c r="N97" s="25" t="n"/>
       <c r="O97" s="25" t="n"/>
       <c r="P97" s="25" t="n"/>
     </row>
     <row r="98" ht="16.5" customHeight="1">
-      <c r="A98" s="21" t="inlineStr">
-        <is>
-          <t>Planificación</t>
-        </is>
-      </c>
-      <c r="B98" s="21" t="inlineStr">
-        <is>
-          <t>Implementación previa</t>
-        </is>
-      </c>
-      <c r="C98" s="21" t="inlineStr">
-        <is>
-          <t>Residencia de datos compatible con las regiones seleccionadas</t>
-        </is>
-      </c>
-      <c r="D98" s="21" t="inlineStr">
-        <is>
-          <t>¿Hay políticas reglamentarias o de cumplimiento en juego?</t>
-        </is>
-      </c>
-      <c r="E98" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A98" s="21" t="n"/>
+      <c r="B98" s="21" t="n"/>
+      <c r="C98" s="21" t="n"/>
+      <c r="D98" s="21" t="n"/>
+      <c r="E98" s="21" t="n"/>
       <c r="G98" s="21" t="n"/>
-      <c r="H98" s="15" t="inlineStr">
-        <is>
-          <t>Internal policy or regulatory compliance</t>
-        </is>
-      </c>
+      <c r="H98" s="15" t="n"/>
       <c r="I98" s="15" t="n"/>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
-      <c r="L98" s="25" t="inlineStr">
-        <is>
-          <t>e52d1615-9cc6-565c-deb6-743ed7e90f4b</t>
-        </is>
-      </c>
+      <c r="L98" s="25" t="n"/>
       <c r="M98" s="25" t="n"/>
       <c r="N98" s="25" t="n"/>
       <c r="O98" s="25" t="n"/>
       <c r="P98" s="25" t="n"/>
     </row>
     <row r="99" ht="16.5" customHeight="1">
-      <c r="A99" s="21" t="inlineStr">
-        <is>
-          <t>Planificación</t>
-        </is>
-      </c>
-      <c r="B99" s="21" t="inlineStr">
-        <is>
-          <t>Implementación previa</t>
-        </is>
-      </c>
-      <c r="C99" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Solicitud de número de hosts AVS enviados </t>
-        </is>
-      </c>
-      <c r="D99" s="21" t="inlineStr">
-        <is>
-          <t>Solicitud a través de la hoja de soporte</t>
-        </is>
-      </c>
-      <c r="E99" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A99" s="21" t="n"/>
+      <c r="B99" s="21" t="n"/>
+      <c r="C99" s="21" t="n"/>
+      <c r="D99" s="21" t="n"/>
+      <c r="E99" s="21" t="n"/>
       <c r="G99" s="21" t="n"/>
-      <c r="H99" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/migrate/concepts-azure-vmware-solution-assessment-calculation</t>
-        </is>
-      </c>
+      <c r="H99" s="15" t="n"/>
       <c r="I99" s="15" t="n"/>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
-      <c r="L99" s="25" t="inlineStr">
-        <is>
-          <t>92bd5ad6-441f-a983-7aa9-05dd669d760b</t>
-        </is>
-      </c>
+      <c r="L99" s="25" t="n"/>
       <c r="M99" s="25" t="n"/>
       <c r="N99" s="25" t="n"/>
       <c r="O99" s="25" t="n"/>
       <c r="P99" s="25" t="n"/>
     </row>
     <row r="100" ht="16.5" customHeight="1">
-      <c r="A100" s="21" t="inlineStr">
-        <is>
-          <t>Planificación</t>
-        </is>
-      </c>
-      <c r="B100" s="21" t="inlineStr">
-        <is>
-          <t>Implementación previa</t>
-        </is>
-      </c>
-      <c r="C100" s="21" t="inlineStr">
-        <is>
-          <t>Región y número de nodos AVS aprobados</t>
-        </is>
-      </c>
-      <c r="D100" s="21" t="inlineStr">
-        <is>
-          <t>Aprobación de PG para el despliegue</t>
-        </is>
-      </c>
-      <c r="E100" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A100" s="21" t="n"/>
+      <c r="B100" s="21" t="n"/>
+      <c r="C100" s="21" t="n"/>
+      <c r="D100" s="21" t="n"/>
+      <c r="E100" s="21" t="n"/>
       <c r="G100" s="21" t="n"/>
-      <c r="H100" s="15" t="inlineStr">
-        <is>
-          <t>Support request through portal or get help from Account Team</t>
-        </is>
-      </c>
+      <c r="H100" s="15" t="n"/>
       <c r="I100" s="15" t="n"/>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
-      <c r="L100" s="25" t="inlineStr">
-        <is>
-          <t>28370f63-1cb8-2e35-907f-c5516b6954fa</t>
-        </is>
-      </c>
+      <c r="L100" s="25" t="n"/>
       <c r="M100" s="25" t="n"/>
       <c r="N100" s="25" t="n"/>
       <c r="O100" s="25" t="n"/>
       <c r="P100" s="25" t="n"/>
     </row>
     <row r="101" ht="16.5" customHeight="1">
-      <c r="A101" s="21" t="inlineStr">
-        <is>
-          <t>Planificación</t>
-        </is>
-      </c>
-      <c r="B101" s="21" t="inlineStr">
-        <is>
-          <t>Implementación previa</t>
-        </is>
-      </c>
-      <c r="C101" s="21" t="inlineStr">
-        <is>
-          <t>Proveedor de recursos para AVS registrado</t>
-        </is>
-      </c>
-      <c r="D101" s="21" t="inlineStr">
-        <is>
-          <t>Portal/suscripción/proveedores de recursos/ Microsoft.AVS</t>
-        </is>
-      </c>
-      <c r="E101" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A101" s="21" t="n"/>
+      <c r="B101" s="21" t="n"/>
+      <c r="C101" s="21" t="n"/>
+      <c r="D101" s="21" t="n"/>
+      <c r="E101" s="21" t="n"/>
       <c r="G101" s="21" t="n"/>
-      <c r="H101" s="15" t="inlineStr">
-        <is>
-          <t>Done through the subscription/resource providers/ AVS  register in the portal</t>
-        </is>
-      </c>
+      <c r="H101" s="15" t="n"/>
       <c r="I101" s="15" t="n"/>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
-      <c r="L101" s="25" t="inlineStr">
-        <is>
-          <t>96c76997-30a6-bb92-024d-f4f93f5f57fa</t>
-        </is>
-      </c>
+      <c r="L101" s="25" t="n"/>
       <c r="M101" s="25" t="n"/>
       <c r="N101" s="25" t="n"/>
       <c r="O101" s="25" t="n"/>
       <c r="P101" s="25" t="n"/>
     </row>
     <row r="102" ht="16.5" customHeight="1">
-      <c r="A102" s="21" t="inlineStr">
-        <is>
-          <t>Planificación</t>
-        </is>
-      </c>
-      <c r="B102" s="21" t="inlineStr">
-        <is>
-          <t>Implementación previa</t>
-        </is>
-      </c>
-      <c r="C102" s="21" t="inlineStr">
-        <is>
-          <t>Arquitectura de la zona de aterrizaje</t>
-        </is>
-      </c>
-      <c r="D102" s="21" t="inlineStr">
-        <is>
-          <t>Modelo de conectividad, suscripción y gobierno</t>
-        </is>
-      </c>
-      <c r="E102" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A102" s="21" t="n"/>
+      <c r="B102" s="21" t="n"/>
+      <c r="C102" s="21" t="n"/>
+      <c r="D102" s="21" t="n"/>
+      <c r="E102" s="21" t="n"/>
       <c r="G102" s="21" t="n"/>
-      <c r="H102" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/enterprise-scale-landing-zone</t>
-        </is>
-      </c>
+      <c r="H102" s="15" t="n"/>
       <c r="I102" s="15" t="n"/>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
-      <c r="L102" s="25" t="inlineStr">
-        <is>
-          <t>5898e3ff-5e6b-bee1-6f85-22fee261ce63</t>
-        </is>
-      </c>
+      <c r="L102" s="25" t="n"/>
       <c r="M102" s="25" t="n"/>
       <c r="N102" s="25" t="n"/>
       <c r="O102" s="25" t="n"/>
       <c r="P102" s="25" t="n"/>
     </row>
     <row r="103" ht="16.5" customHeight="1">
-      <c r="A103" s="21" t="inlineStr">
-        <is>
-          <t>Planificación</t>
-        </is>
-      </c>
-      <c r="B103" s="21" t="inlineStr">
-        <is>
-          <t>Implementación previa</t>
-        </is>
-      </c>
-      <c r="C103" s="21" t="inlineStr">
-        <is>
-          <t>Nombre del grupo de recursos seleccionado</t>
-        </is>
-      </c>
-      <c r="D103" s="21" t="inlineStr">
-        <is>
-          <t>El nombre del RG donde existirá AVS</t>
-        </is>
-      </c>
-      <c r="E103" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A103" s="21" t="n"/>
+      <c r="B103" s="21" t="n"/>
+      <c r="C103" s="21" t="n"/>
+      <c r="D103" s="21" t="n"/>
+      <c r="E103" s="21" t="n"/>
       <c r="G103" s="21" t="n"/>
-      <c r="H103" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-resource-manager/management/manage-resource-groups-portal</t>
-        </is>
-      </c>
+      <c r="H103" s="15" t="n"/>
       <c r="I103" s="15" t="n"/>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
-      <c r="L103" s="25" t="inlineStr">
-        <is>
-          <t>d0181fb8-9cb8-bf4b-f5e5-b5f9bf7ae4ea</t>
-        </is>
-      </c>
+      <c r="L103" s="25" t="n"/>
       <c r="M103" s="25" t="n"/>
       <c r="N103" s="25" t="n"/>
       <c r="O103" s="25" t="n"/>
       <c r="P103" s="25" t="n"/>
     </row>
     <row r="104" ht="16.5" customHeight="1">
-      <c r="A104" s="21" t="inlineStr">
-        <is>
-          <t>Planificación</t>
-        </is>
-      </c>
-      <c r="B104" s="21" t="inlineStr">
-        <is>
-          <t>Implementación previa</t>
-        </is>
-      </c>
-      <c r="C104" s="21" t="inlineStr">
-        <is>
-          <t>Prefijo de implementación seleccionado</t>
-        </is>
-      </c>
-      <c r="D104" s="21" t="inlineStr">
-        <is>
-          <t>Cada recurso creado como parte de la implementación también utilizará este prefijo en el nombre</t>
-        </is>
-      </c>
-      <c r="E104" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A104" s="21" t="n"/>
+      <c r="B104" s="21" t="n"/>
+      <c r="C104" s="21" t="n"/>
+      <c r="D104" s="21" t="n"/>
+      <c r="E104" s="21" t="n"/>
       <c r="G104" s="21" t="n"/>
-      <c r="H104" s="15" t="inlineStr">
-        <is>
-          <t>Best practice - naming standards</t>
-        </is>
-      </c>
+      <c r="H104" s="15" t="n"/>
       <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
-      <c r="L104" s="25" t="inlineStr">
-        <is>
-          <t>0f0d20c2-5a19-726c-de20-0984e070d9d6</t>
-        </is>
-      </c>
+      <c r="L104" s="25" t="n"/>
       <c r="M104" s="25" t="n"/>
       <c r="N104" s="25" t="n"/>
       <c r="O104" s="25" t="n"/>
       <c r="P104" s="25" t="n"/>
     </row>
     <row r="105" ht="16.5" customHeight="1">
-      <c r="A105" s="21" t="inlineStr">
-        <is>
-          <t>Planificación</t>
-        </is>
-      </c>
-      <c r="B105" s="21" t="inlineStr">
-        <is>
-          <t>Implementación previa</t>
-        </is>
-      </c>
-      <c r="C105" s="21" t="inlineStr">
-        <is>
-          <t>Espacio de red para la capa de gestión AVS</t>
-        </is>
-      </c>
-      <c r="D105" s="21" t="inlineStr">
-        <is>
-          <t>/22 espacio de direcciones IPv4 único no superpuesto</t>
-        </is>
-      </c>
-      <c r="E105" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A105" s="21" t="n"/>
+      <c r="B105" s="21" t="n"/>
+      <c r="C105" s="21" t="n"/>
+      <c r="D105" s="21" t="n"/>
+      <c r="E105" s="21" t="n"/>
       <c r="G105" s="21" t="n"/>
-      <c r="H105" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/tutorial-network-checklist#routing-and-subnet-considerations</t>
-        </is>
-      </c>
+      <c r="H105" s="15" t="n"/>
       <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
-      <c r="L105" s="25" t="inlineStr">
-        <is>
-          <t>7fbf2ab7-a36c-5957-c27a-67038557af2a</t>
-        </is>
-      </c>
+      <c r="L105" s="25" t="n"/>
       <c r="M105" s="25" t="n"/>
       <c r="N105" s="25" t="n"/>
       <c r="O105" s="25" t="n"/>
       <c r="P105" s="25" t="n"/>
     </row>
     <row r="106" ht="16.5" customHeight="1">
-      <c r="A106" s="21" t="inlineStr">
-        <is>
-          <t>Planificación</t>
-        </is>
-      </c>
-      <c r="B106" s="21" t="inlineStr">
-        <is>
-          <t>Implementación previa</t>
-        </is>
-      </c>
-      <c r="C106" s="21" t="inlineStr">
-        <is>
-          <t>Espacio de red para segmentos AVS NSX-T</t>
-        </is>
-      </c>
-      <c r="D106" s="21" t="inlineStr">
-        <is>
-          <t>Redes virtuales utilizadas por cargas de trabajo que se ejecutan en AVS (no expandidas)</t>
-        </is>
-      </c>
-      <c r="E106" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A106" s="21" t="n"/>
+      <c r="B106" s="21" t="n"/>
+      <c r="C106" s="21" t="n"/>
+      <c r="D106" s="21" t="n"/>
+      <c r="E106" s="21" t="n"/>
       <c r="G106" s="21" t="n"/>
-      <c r="H106" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-NSX-T-Data-Center/3.2/installation/GUID-4B3860B8-1883-48CA-B2F3-7C2205D91D6D.html</t>
-        </is>
-      </c>
+      <c r="H106" s="15" t="n"/>
       <c r="I106" s="15" t="n"/>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
-      <c r="L106" s="25" t="inlineStr">
-        <is>
-          <t>0c87f999-e517-21ef-f355-f210ad4134d2</t>
-        </is>
-      </c>
+      <c r="L106" s="25" t="n"/>
       <c r="M106" s="25" t="n"/>
       <c r="N106" s="25" t="n"/>
       <c r="O106" s="25" t="n"/>
       <c r="P106" s="25" t="n"/>
     </row>
     <row r="107" ht="16.5" customHeight="1">
-      <c r="A107" s="21" t="inlineStr">
-        <is>
-          <t>Planificación</t>
-        </is>
-      </c>
-      <c r="B107" s="21" t="inlineStr">
-        <is>
-          <t>Implementación previa</t>
-        </is>
-      </c>
-      <c r="C107" s="21" t="inlineStr">
-        <is>
-          <t>SKU de AVS (depende de la región)</t>
-        </is>
-      </c>
-      <c r="D107" s="21" t="inlineStr">
-        <is>
-          <t>Elija AV36, AV36P, AV52, AV36T (AV36T = prueba)</t>
-        </is>
-      </c>
-      <c r="E107" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A107" s="21" t="n"/>
+      <c r="B107" s="21" t="n"/>
+      <c r="C107" s="21" t="n"/>
+      <c r="D107" s="21" t="n"/>
+      <c r="E107" s="21" t="n"/>
       <c r="G107" s="21" t="n"/>
-      <c r="H107" s="15" t="inlineStr">
-        <is>
-          <t>https://azure.microsoft.com/en-us/pricing/details/azure-vmware/</t>
-        </is>
-      </c>
+      <c r="H107" s="15" t="n"/>
       <c r="I107" s="15" t="n"/>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
-      <c r="L107" s="25" t="inlineStr">
-        <is>
-          <t>946c8966-f902-6f53-4f37-00847e8895c2</t>
-        </is>
-      </c>
+      <c r="L107" s="25" t="n"/>
       <c r="M107" s="25" t="n"/>
       <c r="N107" s="25" t="n"/>
       <c r="O107" s="25" t="n"/>
       <c r="P107" s="25" t="n"/>
     </row>
     <row r="108" ht="16.5" customHeight="1">
-      <c r="A108" s="21" t="inlineStr">
-        <is>
-          <t>Planificación</t>
-        </is>
-      </c>
-      <c r="B108" s="21" t="inlineStr">
-        <is>
-          <t>Implementación previa</t>
-        </is>
-      </c>
-      <c r="C108" s="21" t="inlineStr">
-        <is>
-          <t>Número de hosts que se van a implementar</t>
-        </is>
-      </c>
-      <c r="D108" s="21" t="inlineStr">
-        <is>
-          <t>Use la herramienta de evaluación de migración de Azure para determinar el número mínimo de nodos necesarios (considere también BCDR)</t>
-        </is>
-      </c>
-      <c r="E108" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A108" s="21" t="n"/>
+      <c r="B108" s="21" t="n"/>
+      <c r="C108" s="21" t="n"/>
+      <c r="D108" s="21" t="n"/>
+      <c r="E108" s="21" t="n"/>
       <c r="G108" s="21" t="n"/>
-      <c r="H108" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/migrate/how-to-assess</t>
-        </is>
-      </c>
+      <c r="H108" s="15" t="n"/>
       <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
-      <c r="L108" s="25" t="inlineStr">
-        <is>
-          <t>31833808-26ba-9c31-416f-d54a89a17f5d</t>
-        </is>
-      </c>
+      <c r="L108" s="25" t="n"/>
       <c r="M108" s="25" t="n"/>
       <c r="N108" s="25" t="n"/>
       <c r="O108" s="25" t="n"/>
       <c r="P108" s="25" t="n"/>
     </row>
     <row r="109" ht="16.5" customHeight="1">
-      <c r="A109" s="21" t="inlineStr">
-        <is>
-          <t>Planificación</t>
-        </is>
-      </c>
-      <c r="B109" s="21" t="inlineStr">
-        <is>
-          <t>Implementación previa</t>
-        </is>
-      </c>
-      <c r="C109" s="21" t="inlineStr">
-        <is>
-          <t>Instancias de Reserverd</t>
-        </is>
-      </c>
-      <c r="D109" s="21" t="inlineStr">
-        <is>
-          <t>Comprender cómo y si debe usar instancias reservadas (control de costos)</t>
-        </is>
-      </c>
-      <c r="E109" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A109" s="21" t="n"/>
+      <c r="B109" s="21" t="n"/>
+      <c r="C109" s="21" t="n"/>
+      <c r="D109" s="21" t="n"/>
+      <c r="E109" s="21" t="n"/>
       <c r="G109" s="21" t="n"/>
-      <c r="H109" s="15" t="inlineStr">
-        <is>
-          <t>https://azure.microsoft.com/en-ca/pricing/details/azure-vmware/#:~:text=Azure%20VMware%20Solution%20%20%20%20Instance%20size,TB%20%28all%20NVMe%29%20%20%20N%2FA%20%2Fhour%20</t>
-        </is>
-      </c>
+      <c r="H109" s="15" t="n"/>
       <c r="I109" s="15" t="n"/>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
-      <c r="L109" s="25" t="inlineStr">
-        <is>
-          <t>f2b73c4f-3d46-32c9-5df1-5b8dfcd3947f</t>
-        </is>
-      </c>
+      <c r="L109" s="25" t="n"/>
       <c r="M109" s="25" t="n"/>
       <c r="N109" s="25" t="n"/>
       <c r="O109" s="25" t="n"/>
       <c r="P109" s="25" t="n"/>
     </row>
     <row r="110" ht="16.5" customHeight="1">
-      <c r="A110" s="21" t="inlineStr">
-        <is>
-          <t>Planificación</t>
-        </is>
-      </c>
-      <c r="B110" s="21" t="inlineStr">
-        <is>
-          <t>Implementación previa</t>
-        </is>
-      </c>
-      <c r="C110" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Capacidad </t>
-        </is>
-      </c>
-      <c r="D110" s="21" t="inlineStr">
-        <is>
-          <t>Asegúrese de haber solicitado suficiente cuota, asegurándose de que ha considerado el crecimiento y el requisito de recuperación ante desastres</t>
-        </is>
-      </c>
-      <c r="E110" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A110" s="21" t="n"/>
+      <c r="B110" s="21" t="n"/>
+      <c r="C110" s="21" t="n"/>
+      <c r="D110" s="21" t="n"/>
+      <c r="E110" s="21" t="n"/>
       <c r="G110" s="21" t="n"/>
-      <c r="H110" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/concepts-storage#storage-policies-and-fault-tolerance</t>
-        </is>
-      </c>
+      <c r="H110" s="15" t="n"/>
       <c r="I110" s="15" t="n"/>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
-      <c r="L110" s="25" t="inlineStr">
-        <is>
-          <t>94ac48ab-ade5-3fa7-f800-263feeb97070</t>
-        </is>
-      </c>
+      <c r="L110" s="25" t="n"/>
       <c r="M110" s="25" t="n"/>
       <c r="N110" s="25" t="n"/>
       <c r="O110" s="25" t="n"/>
       <c r="P110" s="25" t="n"/>
     </row>
     <row r="111" ht="16.5" customHeight="1">
-      <c r="A111" s="21" t="inlineStr">
-        <is>
-          <t>Planificación</t>
-        </is>
-      </c>
-      <c r="B111" s="21" t="inlineStr">
-        <is>
-          <t>Implementación previa</t>
-        </is>
-      </c>
-      <c r="C111" s="21" t="inlineStr">
-        <is>
-          <t>Redes y conectividad Ver documentos que describen scenrario 1 a 5</t>
-        </is>
-      </c>
-      <c r="D111" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Identificar cuál de los escenarios de red hace </t>
-        </is>
-      </c>
-      <c r="E111" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A111" s="21" t="n"/>
+      <c r="B111" s="21" t="n"/>
+      <c r="C111" s="21" t="n"/>
+      <c r="D111" s="21" t="n"/>
+      <c r="E111" s="21" t="n"/>
       <c r="G111" s="21" t="n"/>
-      <c r="H111" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/scenarios/azure-vmware/eslz-network-topology-connectivity</t>
-        </is>
-      </c>
+      <c r="H111" s="15" t="n"/>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
-      <c r="L111" s="25" t="inlineStr">
-        <is>
-          <t>1f9d4bd5-14b8-928c-b4cb-eb211f9b8de5</t>
-        </is>
-      </c>
+      <c r="L111" s="25" t="n"/>
       <c r="M111" s="25" t="n"/>
       <c r="N111" s="25" t="n"/>
       <c r="O111" s="25" t="n"/>
       <c r="P111" s="25" t="n"/>
     </row>
     <row r="112" ht="16.5" customHeight="1">
-      <c r="A112" s="21" t="inlineStr">
-        <is>
-          <t>Planificación</t>
-        </is>
-      </c>
-      <c r="B112" s="21" t="inlineStr">
-        <is>
-          <t>Implementación previa</t>
-        </is>
-      </c>
-      <c r="C112" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Compatibilidad de aplicaciones de 3rd party </t>
-        </is>
-      </c>
-      <c r="D112" s="21" t="inlineStr">
-        <is>
-          <t>Asegúrese de que se comprendan las restricciones de acceso a ESXi, existen límites de acceso que pueden afectar a las soluciones de 3 ª parte.</t>
-        </is>
-      </c>
-      <c r="E112" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A112" s="21" t="n"/>
+      <c r="B112" s="21" t="n"/>
+      <c r="C112" s="21" t="n"/>
+      <c r="D112" s="21" t="n"/>
+      <c r="E112" s="21" t="n"/>
       <c r="G112" s="21" t="n"/>
-      <c r="H112" s="15" t="inlineStr">
-        <is>
-          <t>Please Check Partner Ecosystem</t>
-        </is>
-      </c>
+      <c r="H112" s="15" t="n"/>
       <c r="I112" s="15" t="n"/>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
-      <c r="L112" s="25" t="inlineStr">
-        <is>
-          <t>070db19b-8a2a-fd6a-c39b-4488d8780da9</t>
-        </is>
-      </c>
+      <c r="L112" s="25" t="n"/>
       <c r="M112" s="25" t="n"/>
       <c r="N112" s="25" t="n"/>
       <c r="O112" s="25" t="n"/>
       <c r="P112" s="25" t="n"/>
     </row>
     <row r="113" ht="16.5" customHeight="1">
-      <c r="A113" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="B113" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="C113" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Habilite la detección avanzada de amenazas </t>
-        </is>
-      </c>
-      <c r="D113" s="21" t="inlineStr">
-        <is>
-          <t>MS Defender For Cloud, para cargas de trabajo que se ejecutan en Azure VMware Solution</t>
-        </is>
-      </c>
-      <c r="E113" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A113" s="21" t="n"/>
+      <c r="B113" s="21" t="n"/>
+      <c r="C113" s="21" t="n"/>
+      <c r="D113" s="21" t="n"/>
+      <c r="E113" s="21" t="n"/>
       <c r="G113" s="21" t="n"/>
-      <c r="H113" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/azure-security-integration#prerequisites</t>
-        </is>
-      </c>
+      <c r="H113" s="15" t="n"/>
       <c r="I113" s="15" t="n"/>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
-      <c r="L113" s="25" t="inlineStr">
-        <is>
-          <t>f42b0b09-c591-238a-1580-2de3c485ebd2</t>
-        </is>
-      </c>
+      <c r="L113" s="25" t="n"/>
       <c r="M113" s="25" t="n"/>
       <c r="N113" s="25" t="n"/>
       <c r="O113" s="25" t="n"/>
       <c r="P113" s="25" t="n"/>
     </row>
     <row r="114" ht="16.5" customHeight="1">
-      <c r="A114" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="B114" s="21" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
-      <c r="C114" s="21" t="inlineStr">
-        <is>
-          <t>Política y cumplimiento normativo</t>
-        </is>
-      </c>
-      <c r="D114" s="21" t="inlineStr">
-        <is>
-          <t>¿Están habilitadas las políticas aplicables (líneas base de cumplimiento agregadas a MDfC)?</t>
-        </is>
-      </c>
-      <c r="E114" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A114" s="21" t="n"/>
+      <c r="B114" s="21" t="n"/>
+      <c r="C114" s="21" t="n"/>
+      <c r="D114" s="21" t="n"/>
+      <c r="E114" s="21" t="n"/>
       <c r="G114" s="21" t="n"/>
-      <c r="H114" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-vmware/azure-security-integration</t>
-        </is>
-      </c>
+      <c r="H114" s="15" t="n"/>
       <c r="I114" s="15" t="n"/>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
-      <c r="L114" s="25" t="inlineStr">
-        <is>
-          <t>bcdd2348-3d0e-c6bb-1092-aa4cd1a66d6b</t>
-        </is>
-      </c>
+      <c r="L114" s="25" t="n"/>
       <c r="M114" s="25" t="n"/>
       <c r="N114" s="25" t="n"/>
       <c r="O114" s="25" t="n"/>
       <c r="P114" s="25" t="n"/>
     </row>
     <row r="115" ht="16.5" customHeight="1">
-      <c r="A115" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B115" s="21" t="inlineStr">
-        <is>
-          <t>Cortafuegos</t>
-        </is>
-      </c>
-      <c r="C115" s="21" t="inlineStr">
-        <is>
-          <t>Azure / firewall de terceros</t>
-        </is>
-      </c>
-      <c r="D115" s="21" t="inlineStr">
-        <is>
-          <t>Azure a Azure (E/W), Azure a local), AVS a Internet, AVS a Azure</t>
-        </is>
-      </c>
-      <c r="E115" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A115" s="21" t="n"/>
+      <c r="B115" s="21" t="n"/>
+      <c r="C115" s="21" t="n"/>
+      <c r="D115" s="21" t="n"/>
+      <c r="E115" s="21" t="n"/>
       <c r="G115" s="21" t="n"/>
-      <c r="H115" s="15" t="inlineStr">
-        <is>
-          <t>https://techcommunity.microsoft.com/t5/azure-migration-and/firewall-integration-in-azure-vmware-solution/ba-p/2254961#:~:text=Azure%20VMware%20Solution%20customers%20have%20multiple%20security%20options,the%20box%20to%20provide%20East-West%20and%20North-South%20firewalling.</t>
-        </is>
-      </c>
+      <c r="H115" s="15" t="n"/>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
-      <c r="L115" s="25" t="inlineStr">
-        <is>
-          <t>607c1ca9-da92-ae19-5a4c-eb1e876acbe7</t>
-        </is>
-      </c>
+      <c r="L115" s="25" t="n"/>
       <c r="M115" s="25" t="n"/>
       <c r="N115" s="25" t="n"/>
       <c r="O115" s="25" t="n"/>
       <c r="P115" s="25" t="n"/>
     </row>
     <row r="116" ht="16.5" customHeight="1">
-      <c r="A116" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B116" s="21" t="inlineStr">
-        <is>
-          <t>Cortafuegos</t>
-        </is>
-      </c>
-      <c r="C116" s="21" t="inlineStr">
-        <is>
-          <t>Los cortafuegos permiten el tráfico Este/Oeste dentro de AVS</t>
-        </is>
-      </c>
-      <c r="D116" s="21" t="inlineStr">
-        <is>
-          <t>Para permitir que el dispositivo HCX se conecte/sincronice</t>
-        </is>
-      </c>
-      <c r="E116" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A116" s="21" t="n"/>
+      <c r="B116" s="21" t="n"/>
+      <c r="C116" s="21" t="n"/>
+      <c r="D116" s="21" t="n"/>
+      <c r="E116" s="21" t="n"/>
       <c r="G116" s="21" t="n"/>
-      <c r="H116" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-Cloud-on-AWS/services/com.vmware.vmc-aws-networking-security/GUID-2CFE1654-9CC9-4EDB-A625-21317299E559.html</t>
-        </is>
-      </c>
+      <c r="H116" s="15" t="n"/>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
-      <c r="L116" s="25" t="inlineStr">
-        <is>
-          <t>1d87925c-c02b-7fde-a425-7e95ad846a27</t>
-        </is>
-      </c>
+      <c r="L116" s="25" t="n"/>
       <c r="M116" s="25" t="n"/>
       <c r="N116" s="25" t="n"/>
       <c r="O116" s="25" t="n"/>
       <c r="P116" s="25" t="n"/>
     </row>
     <row r="117" ht="16.5" customHeight="1">
-      <c r="A117" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B117" s="21" t="inlineStr">
-        <is>
-          <t>Gestión de redes</t>
-        </is>
-      </c>
-      <c r="C117" s="21" t="inlineStr">
-        <is>
-          <t>HCX y/o SRM</t>
-        </is>
-      </c>
-      <c r="D117" s="21" t="inlineStr">
-        <is>
-          <t>Decisión sobre qué herramienta usar (SRM requiere licencia adicional, habilita la automatización y otras características)</t>
-        </is>
-      </c>
-      <c r="E117" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A117" s="21" t="n"/>
+      <c r="B117" s="21" t="n"/>
+      <c r="C117" s="21" t="n"/>
+      <c r="D117" s="21" t="n"/>
+      <c r="E117" s="21" t="n"/>
       <c r="G117" s="21" t="n"/>
-      <c r="H117" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-HCX/4.2/hcx-user-guide/GUID-B842696B-89EF-4183-9C73-B77157F56055.html</t>
-        </is>
-      </c>
+      <c r="H117" s="15" t="n"/>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
-      <c r="L117" s="25" t="inlineStr">
-        <is>
-          <t>468b3495-2f6e-b65a-38ef-3ba631bcaa46</t>
-        </is>
-      </c>
+      <c r="L117" s="25" t="n"/>
       <c r="M117" s="25" t="n"/>
       <c r="N117" s="25" t="n"/>
       <c r="O117" s="25" t="n"/>
       <c r="P117" s="25" t="n"/>
     </row>
     <row r="118" ht="16.5" customHeight="1">
-      <c r="A118" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B118" s="21" t="inlineStr">
-        <is>
-          <t>Gestión de redes</t>
-        </is>
-      </c>
-      <c r="C118" s="21" t="inlineStr">
-        <is>
-          <t>Configuración y administración de la interconexión HCX</t>
-        </is>
-      </c>
-      <c r="D118" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lea sobre los requisitos para los requisitos de Service Mesh y cómo HCX </t>
-        </is>
-      </c>
-      <c r="E118" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A118" s="21" t="n"/>
+      <c r="B118" s="21" t="n"/>
+      <c r="C118" s="21" t="n"/>
+      <c r="D118" s="21" t="n"/>
+      <c r="E118" s="21" t="n"/>
       <c r="G118" s="21" t="n"/>
-      <c r="H118" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-HCX/4.6/hcx-user-guide/GUID-76BCD059-A31A-4041-9105-ACFB56213E7C.html</t>
-        </is>
-      </c>
+      <c r="H118" s="15" t="n"/>
       <c r="I118" s="15" t="n"/>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
-      <c r="L118" s="25" t="inlineStr">
-        <is>
-          <t>be2ced52-da08-d366-cf7c-044c19e29509</t>
-        </is>
-      </c>
+      <c r="L118" s="25" t="n"/>
       <c r="M118" s="25" t="n"/>
       <c r="N118" s="25" t="n"/>
       <c r="O118" s="25" t="n"/>
       <c r="P118" s="25" t="n"/>
     </row>
     <row r="119" ht="16.5" customHeight="1">
-      <c r="A119" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B119" s="21" t="inlineStr">
-        <is>
-          <t>Gestión de redes</t>
-        </is>
-      </c>
-      <c r="C119" s="21" t="inlineStr">
-        <is>
-          <t>Restricciones y limitaciones para extensiones de red</t>
-        </is>
-      </c>
-      <c r="D119" s="21" t="inlineStr">
-        <is>
-          <t>Si planea usar redes extensas, asegúrese de que los requisitos del entorno local</t>
-        </is>
-      </c>
-      <c r="E119" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A119" s="21" t="n"/>
+      <c r="B119" s="21" t="n"/>
+      <c r="C119" s="21" t="n"/>
+      <c r="D119" s="21" t="n"/>
+      <c r="E119" s="21" t="n"/>
       <c r="G119" s="21" t="n"/>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-HCX/4.2/hcx-user-guide/GUID-DBDB4D1B-60B6-4D16-936B-4AC632606909.html</t>
-        </is>
-      </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
-      <c r="L119" s="25" t="inlineStr">
-        <is>
-          <t>7dcac579-fc5c-5c9c-f1f7-9b1149ff2c37</t>
-        </is>
-      </c>
+      <c r="L119" s="25" t="n"/>
       <c r="M119" s="25" t="n"/>
       <c r="N119" s="25" t="n"/>
       <c r="O119" s="25" t="n"/>
       <c r="P119" s="25" t="n"/>
     </row>
     <row r="120" ht="16.5" customHeight="1">
-      <c r="A120" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B120" s="21" t="inlineStr">
-        <is>
-          <t>Gestión de redes</t>
-        </is>
-      </c>
-      <c r="C120" s="21" t="inlineStr">
-        <is>
-          <t>Redes optimizadas para movilidad</t>
-        </is>
-      </c>
-      <c r="D120" s="21" t="inlineStr">
-        <is>
-          <t>¿Las cargas de trabajo requieren MoN?</t>
-        </is>
-      </c>
-      <c r="E120" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A120" s="21" t="n"/>
+      <c r="B120" s="21" t="n"/>
+      <c r="C120" s="21" t="n"/>
+      <c r="D120" s="21" t="n"/>
+      <c r="E120" s="21" t="n"/>
       <c r="G120" s="21" t="n"/>
-      <c r="H120" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/vmware-hcx-mon-guidance</t>
-        </is>
-      </c>
+      <c r="H120" s="15" t="n"/>
       <c r="I120" s="15" t="n"/>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
-      <c r="L120" s="25" t="inlineStr">
-        <is>
-          <t>cf45c0b9-6c4b-3bfb-86c5-62fe54061c73</t>
-        </is>
-      </c>
+      <c r="L120" s="25" t="n"/>
       <c r="M120" s="25" t="n"/>
       <c r="N120" s="25" t="n"/>
       <c r="O120" s="25" t="n"/>
       <c r="P120" s="25" t="n"/>
     </row>
     <row r="121" ht="16.5" customHeight="1">
-      <c r="A121" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B121" s="21" t="inlineStr">
-        <is>
-          <t>Requisitos previos locales</t>
-        </is>
-      </c>
-      <c r="C121" s="21" t="inlineStr">
-        <is>
-          <t>Matriz de soporte (versiones del sistema operativo, etc.).</t>
-        </is>
-      </c>
-      <c r="D121" s="21" t="inlineStr">
-        <is>
-          <t>Nivel de sistema operativo del entorno VMWARE</t>
-        </is>
-      </c>
-      <c r="E121" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A121" s="21" t="n"/>
+      <c r="B121" s="21" t="n"/>
+      <c r="C121" s="21" t="n"/>
+      <c r="D121" s="21" t="n"/>
+      <c r="E121" s="21" t="n"/>
       <c r="G121" s="21" t="n"/>
-      <c r="H121" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/site-recovery/vmware-physical-azure-support-matrix</t>
-        </is>
-      </c>
+      <c r="H121" s="15" t="n"/>
       <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
-      <c r="L121" s="25" t="inlineStr">
-        <is>
-          <t>b7cf11f3-b12e-5189-991a-06df5250d2ca</t>
-        </is>
-      </c>
+      <c r="L121" s="25" t="n"/>
       <c r="M121" s="25" t="n"/>
       <c r="N121" s="25" t="n"/>
       <c r="O121" s="25" t="n"/>
       <c r="P121" s="25" t="n"/>
     </row>
     <row r="122" ht="16.5" customHeight="1">
-      <c r="A122" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B122" s="21" t="inlineStr">
-        <is>
-          <t>Requisitos previos locales</t>
-        </is>
-      </c>
-      <c r="C122" s="21" t="inlineStr">
-        <is>
-          <t>Conmutadores estándar convertidos en conmutadores dinámicos</t>
-        </is>
-      </c>
-      <c r="D122" s="21" t="inlineStr">
-        <is>
-          <t>Se requiere que todos los switches sean dinámicos</t>
-        </is>
-      </c>
-      <c r="E122" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A122" s="21" t="n"/>
+      <c r="B122" s="21" t="n"/>
+      <c r="C122" s="21" t="n"/>
+      <c r="D122" s="21" t="n"/>
+      <c r="E122" s="21" t="n"/>
       <c r="G122" s="21" t="n"/>
-      <c r="H122" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-vSphere/7.0/vsan-network-design-guide/GUID-91E1CD6F-33A6-4AC6-BC22-3E4807296F86.html#:~:text=Migrate%20Management%20Network%201%20Add%20hosts%20to%20the,each%20host.%20...%204%20Finish%20the%20configuration.%20</t>
-        </is>
-      </c>
+      <c r="H122" s="15" t="n"/>
       <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
-      <c r="L122" s="25" t="inlineStr">
-        <is>
-          <t>45fe9252-aa1b-4e30-45c6-bc02f3b76acf</t>
-        </is>
-      </c>
+      <c r="L122" s="25" t="n"/>
       <c r="M122" s="25" t="n"/>
       <c r="N122" s="25" t="n"/>
       <c r="O122" s="25" t="n"/>
       <c r="P122" s="25" t="n"/>
     </row>
     <row r="123" ht="16.5" customHeight="1">
-      <c r="A123" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B123" s="21" t="inlineStr">
-        <is>
-          <t>Requisitos previos locales</t>
-        </is>
-      </c>
-      <c r="C123" s="21" t="inlineStr">
-        <is>
-          <t>Capacidad para dispositivos HCX</t>
-        </is>
-      </c>
-      <c r="D123" s="21" t="inlineStr">
-        <is>
-          <t>Consulte las secciones sobre tamaño y capacidad en el enlace.</t>
-        </is>
-      </c>
-      <c r="E123" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A123" s="21" t="n"/>
+      <c r="B123" s="21" t="n"/>
+      <c r="C123" s="21" t="n"/>
+      <c r="D123" s="21" t="n"/>
+      <c r="E123" s="21" t="n"/>
       <c r="G123" s="21" t="n"/>
-      <c r="H123" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/plan-private-cloud-deployment</t>
-        </is>
-      </c>
+      <c r="H123" s="15" t="n"/>
       <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
-      <c r="L123" s="25" t="inlineStr">
-        <is>
-          <t>e9f6d736-ee44-e2ac-e7f9-e361f8c857f3</t>
-        </is>
-      </c>
+      <c r="L123" s="25" t="n"/>
       <c r="M123" s="25" t="n"/>
       <c r="N123" s="25" t="n"/>
       <c r="O123" s="25" t="n"/>
       <c r="P123" s="25" t="n"/>
     </row>
     <row r="124" ht="16.5" customHeight="1">
-      <c r="A124" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B124" s="21" t="inlineStr">
-        <is>
-          <t>Requisitos previos locales</t>
-        </is>
-      </c>
-      <c r="C124" s="21" t="inlineStr">
-        <is>
-          <t>Compatibilidad de hardware</t>
-        </is>
-      </c>
-      <c r="D124" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Compruebe las restricciones de hardware para garantizar la compatibilidad con AVS/OS </t>
-        </is>
-      </c>
-      <c r="E124" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A124" s="21" t="n"/>
+      <c r="B124" s="21" t="n"/>
+      <c r="C124" s="21" t="n"/>
+      <c r="D124" s="21" t="n"/>
+      <c r="E124" s="21" t="n"/>
       <c r="G124" s="21" t="n"/>
-      <c r="H124" s="15" t="inlineStr">
-        <is>
-          <t>https://kb.vmware.com/s/article/2007240#:~:text=ESXi%2FESX%20hosts%20and%20compatible%20virtual%20machine%20hardware%20versions,%20Not%20Supported%20%204%20more%20rows</t>
-        </is>
-      </c>
+      <c r="H124" s="15" t="n"/>
       <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
-      <c r="L124" s="25" t="inlineStr">
-        <is>
-          <t>1be2cdd6-15a7-9a33-aea7-113859035ce9</t>
-        </is>
-      </c>
+      <c r="L124" s="25" t="n"/>
       <c r="M124" s="25" t="n"/>
       <c r="N124" s="25" t="n"/>
       <c r="O124" s="25" t="n"/>
       <c r="P124" s="25" t="n"/>
     </row>
     <row r="125" ht="16.5" customHeight="1">
-      <c r="A125" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B125" s="21" t="inlineStr">
-        <is>
-          <t>Almacenamiento</t>
-        </is>
-      </c>
-      <c r="C125" s="21" t="inlineStr">
-        <is>
-          <t>Los discos RDM de VSAN se convierten, no se admiten.</t>
-        </is>
-      </c>
-      <c r="D125" s="21" t="inlineStr">
-        <is>
-          <t>Necesita ser convertido</t>
-        </is>
-      </c>
-      <c r="E125" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A125" s="21" t="n"/>
+      <c r="B125" s="21" t="n"/>
+      <c r="C125" s="21" t="n"/>
+      <c r="D125" s="21" t="n"/>
+      <c r="E125" s="21" t="n"/>
       <c r="G125" s="21" t="n"/>
-      <c r="H125" s="15" t="inlineStr">
-        <is>
-          <t>https://docs.vmware.com/en/VMware-vSphere/7.0/com.vmware.vsphere.storage.doc/GUID-01D3CF47-A84A-4988-8103-A0487D6441AA.html</t>
-        </is>
-      </c>
+      <c r="H125" s="15" t="n"/>
       <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
-      <c r="L125" s="25" t="inlineStr">
-        <is>
-          <t>16ab821a-27c6-b6d3-6042-10dc4d6dfcb7</t>
-        </is>
-      </c>
+      <c r="L125" s="25" t="n"/>
       <c r="M125" s="25" t="n"/>
       <c r="N125" s="25" t="n"/>
       <c r="O125" s="25" t="n"/>
       <c r="P125" s="25" t="n"/>
     </row>
     <row r="126" ht="16.5" customHeight="1">
-      <c r="A126" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B126" s="21" t="inlineStr">
-        <is>
-          <t>Almacenamiento</t>
-        </is>
-      </c>
-      <c r="C126" s="21" t="inlineStr">
-        <is>
-          <t>No se admiten máquinas virtuales con bus compartido SCSI</t>
-        </is>
-      </c>
-      <c r="D126" s="21" t="inlineStr">
-        <is>
-          <t>Necesita ser convertido</t>
-        </is>
-      </c>
-      <c r="E126" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A126" s="21" t="n"/>
+      <c r="B126" s="21" t="n"/>
+      <c r="C126" s="21" t="n"/>
+      <c r="D126" s="21" t="n"/>
+      <c r="E126" s="21" t="n"/>
       <c r="G126" s="21" t="n"/>
-      <c r="H126" s="15" t="inlineStr">
-        <is>
-          <t>3rd-Party tools</t>
-        </is>
-      </c>
+      <c r="H126" s="15" t="n"/>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
-      <c r="L126" s="25" t="inlineStr">
-        <is>
-          <t>eb2f9313-afb2-ab35-aa24-6d97a3cb0611</t>
-        </is>
-      </c>
+      <c r="L126" s="25" t="n"/>
       <c r="M126" s="25" t="n"/>
       <c r="N126" s="25" t="n"/>
       <c r="O126" s="25" t="n"/>
       <c r="P126" s="25" t="n"/>
     </row>
     <row r="127" ht="16.5" customHeight="1">
-      <c r="A127" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B127" s="21" t="inlineStr">
-        <is>
-          <t>Almacenamiento</t>
-        </is>
-      </c>
-      <c r="C127" s="21" t="inlineStr">
-        <is>
-          <t>La máquina virtual con E/S directa requiere la eliminación del dispositivo DirectPath</t>
-        </is>
-      </c>
-      <c r="D127" s="21" t="inlineStr">
-        <is>
-          <t>Quitar E/S directa antes de la migración</t>
-        </is>
-      </c>
-      <c r="E127" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A127" s="21" t="n"/>
+      <c r="B127" s="21" t="n"/>
+      <c r="C127" s="21" t="n"/>
+      <c r="D127" s="21" t="n"/>
+      <c r="E127" s="21" t="n"/>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="inlineStr">
-        <is>
-          <t>Contact VMware</t>
-        </is>
-      </c>
+      <c r="H127" s="15" t="n"/>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
-      <c r="L127" s="25" t="inlineStr">
-        <is>
-          <t>3f2a5cff-c8a6-634a-1f1b-53ef9d321381</t>
-        </is>
-      </c>
+      <c r="L127" s="25" t="n"/>
       <c r="M127" s="25" t="n"/>
       <c r="N127" s="25" t="n"/>
       <c r="O127" s="25" t="n"/>
       <c r="P127" s="25" t="n"/>
     </row>
     <row r="128" ht="16.5" customHeight="1">
-      <c r="A128" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B128" s="21" t="inlineStr">
-        <is>
-          <t>Almacenamiento</t>
-        </is>
-      </c>
-      <c r="C128" s="21" t="inlineStr">
-        <is>
-          <t>Los archivos VMDK compartidos no son compatibles</t>
-        </is>
-      </c>
-      <c r="D128" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">No se pueden migrar clústeres </t>
-        </is>
-      </c>
-      <c r="E128" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A128" s="21" t="n"/>
+      <c r="B128" s="21" t="n"/>
+      <c r="C128" s="21" t="n"/>
+      <c r="D128" s="21" t="n"/>
+      <c r="E128" s="21" t="n"/>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="inlineStr">
-        <is>
-          <t>Contact VMware</t>
-        </is>
-      </c>
+      <c r="H128" s="15" t="n"/>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
-      <c r="L128" s="25" t="inlineStr">
-        <is>
-          <t>efc8a311-74f8-0252-c6a0-4bac7610e266</t>
-        </is>
-      </c>
+      <c r="L128" s="25" t="n"/>
       <c r="M128" s="25" t="n"/>
       <c r="N128" s="25" t="n"/>
       <c r="O128" s="25" t="n"/>
       <c r="P128" s="25" t="n"/>
     </row>
     <row r="129" ht="16.5" customHeight="1">
-      <c r="A129" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B129" s="21" t="inlineStr">
-        <is>
-          <t>Almacenamiento</t>
-        </is>
-      </c>
-      <c r="C129" s="21" t="inlineStr">
-        <is>
-          <t>RDM con 'modo de compatibilidad física' no son compatibles.</t>
-        </is>
-      </c>
-      <c r="D129" s="21" t="inlineStr">
-        <is>
-          <t>Convertir a un formato diferente</t>
-        </is>
-      </c>
-      <c r="E129" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A129" s="21" t="n"/>
+      <c r="B129" s="21" t="n"/>
+      <c r="C129" s="21" t="n"/>
+      <c r="D129" s="21" t="n"/>
+      <c r="E129" s="21" t="n"/>
       <c r="G129" s="21" t="n"/>
-      <c r="H129" s="15" t="inlineStr">
-        <is>
-          <t>Contact VMware</t>
-        </is>
-      </c>
+      <c r="H129" s="15" t="n"/>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
-      <c r="L129" s="25" t="inlineStr">
-        <is>
-          <t>ab6c89cd-a26f-b894-fe59-61863975458e</t>
-        </is>
-      </c>
+      <c r="L129" s="25" t="n"/>
       <c r="M129" s="25" t="n"/>
       <c r="N129" s="25" t="n"/>
       <c r="O129" s="25" t="n"/>
       <c r="P129" s="25" t="n"/>
     </row>
     <row r="130" ht="16.5" customHeight="1">
-      <c r="A130" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B130" s="21" t="inlineStr">
-        <is>
-          <t>Almacenamiento</t>
-        </is>
-      </c>
-      <c r="C130" s="21" t="inlineStr">
-        <is>
-          <t>Directiva de almacenamiento predeterminada</t>
-        </is>
-      </c>
-      <c r="D130" s="21" t="inlineStr">
-        <is>
-          <t>Asegúrese de que la directiva de almacenamiento de vSAN para máquinas virtuales NO sea la directiva de almacenamiento predeterminada, ya que esta directiva aplica aprovisionamiento grueso 'RAID-1 FTT-1' es el predeterminado con Thin Provisioning</t>
-        </is>
-      </c>
-      <c r="E130" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A130" s="21" t="n"/>
+      <c r="B130" s="21" t="n"/>
+      <c r="C130" s="21" t="n"/>
+      <c r="D130" s="21" t="n"/>
+      <c r="E130" s="21" t="n"/>
       <c r="G130" s="21" t="n"/>
-      <c r="H130" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-storage#storage-policies-and-fault-tolerance</t>
-        </is>
-      </c>
+      <c r="H130" s="15" t="n"/>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
-      <c r="L130" s="25" t="inlineStr">
-        <is>
-          <t>7628d446-6b10-9678-9cec-f407d990de43</t>
-        </is>
-      </c>
+      <c r="L130" s="25" t="n"/>
       <c r="M130" s="25" t="n"/>
       <c r="N130" s="25" t="n"/>
       <c r="O130" s="25" t="n"/>
       <c r="P130" s="25" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B131" s="21" t="inlineStr">
-        <is>
-          <t>Almacenamiento</t>
-        </is>
-      </c>
-      <c r="C131" s="21" t="inlineStr">
-        <is>
-          <t>Asegúrese de que se usa la directiva de almacenamiento de plantilla de máquina virtual adecuada</t>
-        </is>
-      </c>
-      <c r="D131" s="21" t="inlineStr">
-        <is>
-          <t>La directiva de almacenamiento predeterminada se establece en RAID-1 (creación de reflejo) FTT-1, con la reserva de espacio de objetos establecida en aprovisionamiento fino.</t>
-        </is>
-      </c>
-      <c r="E131" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A131" s="21" t="n"/>
+      <c r="B131" s="21" t="n"/>
+      <c r="C131" s="21" t="n"/>
+      <c r="D131" s="21" t="n"/>
+      <c r="E131" s="21" t="n"/>
       <c r="G131" s="21" t="n"/>
-      <c r="H131" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/configure-storage-policy</t>
-        </is>
-      </c>
+      <c r="H131" s="15" t="n"/>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
-      <c r="L131" s="25" t="inlineStr">
-        <is>
-          <t>37fef358-7ab9-43a9-542c-22673955200e</t>
-        </is>
-      </c>
+      <c r="L131" s="25" t="n"/>
       <c r="M131" s="25" t="n"/>
       <c r="N131" s="25" t="n"/>
       <c r="O131" s="25" t="n"/>
       <c r="P131" s="25" t="n"/>
     </row>
     <row r="132" ht="16.5" customHeight="1">
-      <c r="A132" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B132" s="21" t="inlineStr">
-        <is>
-          <t>Almacenamiento</t>
-        </is>
-      </c>
-      <c r="C132" s="21" t="inlineStr">
-        <is>
-          <t>Falta de tolerancia de la política</t>
-        </is>
-      </c>
-      <c r="D132" s="21" t="inlineStr">
-        <is>
-          <t>Asegúrese de que la directiva de errores de tolerancia esté implementada para satisfacer sus necesidades de almacenamiento de vSAN</t>
-        </is>
-      </c>
-      <c r="E132" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A132" s="21" t="n"/>
+      <c r="B132" s="21" t="n"/>
+      <c r="C132" s="21" t="n"/>
+      <c r="D132" s="21" t="n"/>
+      <c r="E132" s="21" t="n"/>
       <c r="G132" s="21" t="n"/>
-      <c r="H132" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/concepts-storage#storage-policies-and-fault-tolerance</t>
-        </is>
-      </c>
+      <c r="H132" s="15" t="n"/>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
-      <c r="L132" s="25" t="inlineStr">
-        <is>
-          <t>ebebd109-9f9d-d85e-1b2f-d302012843b7</t>
-        </is>
-      </c>
+      <c r="L132" s="25" t="n"/>
       <c r="M132" s="25" t="n"/>
       <c r="N132" s="25" t="n"/>
       <c r="O132" s="25" t="n"/>
       <c r="P132" s="25" t="n"/>
     </row>
     <row r="133" ht="16.5" customHeight="1">
-      <c r="A133" s="21" t="inlineStr">
-        <is>
-          <t>VMware</t>
-        </is>
-      </c>
-      <c r="B133" s="21" t="inlineStr">
-        <is>
-          <t>Almacenamiento</t>
-        </is>
-      </c>
-      <c r="C133" s="21" t="inlineStr">
-        <is>
-          <t>Usar ANF para almacenamiento externo</t>
-        </is>
-      </c>
-      <c r="D133" s="21" t="inlineStr">
-        <is>
-          <t>ANF se puede usar para ampliar el almacenamiento para Azure VMware Solution,</t>
-        </is>
-      </c>
-      <c r="E133" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="A133" s="21" t="n"/>
+      <c r="B133" s="21" t="n"/>
+      <c r="C133" s="21" t="n"/>
+      <c r="D133" s="21" t="n"/>
+      <c r="E133" s="21" t="n"/>
       <c r="G133" s="21" t="n"/>
-      <c r="H133" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-vmware/netapp-files-with-azure-vmware-solution</t>
-        </is>
-      </c>
+      <c r="H133" s="15" t="n"/>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
-      <c r="L133" s="25" t="inlineStr">
-        <is>
-          <t>1be821bd-4f37-216a-3e3d-2a5ac6996863</t>
-        </is>
-      </c>
+      <c r="L133" s="25" t="n"/>
       <c r="M133" s="25" t="n"/>
       <c r="N133" s="25" t="n"/>
       <c r="O133" s="25" t="n"/>
@@ -9877,20 +7912,118 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
-    <cfRule type="expression" priority="57" dxfId="1">
+  <conditionalFormatting sqref="A8:E57">
+    <cfRule type="expression" priority="7" dxfId="0">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
-    <cfRule type="expression" priority="58" dxfId="0">
+    <cfRule type="expression" priority="8" dxfId="1">
       <formula>($A8&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F297">
-    <cfRule type="expression" priority="31" dxfId="1">
+  <conditionalFormatting sqref="A58:E58 G58:H58">
+    <cfRule type="expression" priority="26" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:E86">
+    <cfRule type="expression" priority="9" dxfId="0">
+      <formula>($A59&lt;&gt;$A60)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" dxfId="1">
+      <formula>($A59&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:G297">
+    <cfRule type="expression" priority="31" dxfId="0">
       <formula>($A87&lt;&gt;$A88)</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" dxfId="4">
+    <cfRule type="expression" priority="37" dxfId="8">
       <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D24">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F86">
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="8">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" priority="28" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" dxfId="8">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:P57 G59:P86">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:J58 L58:P58">
+    <cfRule type="expression" priority="251" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="250" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:I308 J87:P297">
+    <cfRule type="expression" priority="57" dxfId="0">
+      <formula>($A87&lt;&gt;$A88)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="58" dxfId="1">
+      <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:P6">
@@ -9902,123 +8035,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:J58 L58:P58">
-    <cfRule type="expression" priority="250" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="251" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
-    <cfRule type="expression" priority="9" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E43">
-    <cfRule type="expression" priority="7" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F86">
-    <cfRule type="expression" priority="5" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" dxfId="4">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:E58 G58:H58">
-    <cfRule type="expression" priority="26" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" priority="28" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29" dxfId="4">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K57 K59:K86">
-    <cfRule type="expression" priority="1" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="2" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" priority="3" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F134" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F97" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -10033,7 +8051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -10109,7 +8127,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Planificación</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -10146,7 +8164,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Conectividad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -10173,12 +8191,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Esta comprobación se ha comprobado y no hay más elementos de acción asociados a ella</t>
+          <t>Esta comprobación se ha verificado y no hay más elementos de acción asociados a ella</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -10195,7 +8213,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -10217,7 +8235,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -10234,28 +8252,7 @@
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>Monitorización</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>BCDR</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Otros servicios/operaciones</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Administración</t>
+          <t>Automatización de la plataforma</t>
         </is>
       </c>
     </row>

--- a/spreadsheet/macrofree/avs_checklist.es.xlsx
+++ b/spreadsheet/macrofree/avs_checklist.es.xlsx
@@ -1132,7 +1132,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
+          <t>75089c20-990d-4927-b105-885576f76fc2</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que NSX-Manager esté integrado con un proveedor de identidades externo</t>
+          <t>Asegúrese de que NSX-Manager esté integrado con un proveedor de identidades externo (LDAPS)</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1437,17 +1437,17 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>Arquitectura</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>¿Se ha seleccionado el modelo de conectividad de Azure VMware Solution correcto para el caso de uso del cliente en cuestión?</t>
+          <t>Asegúrese de que todos los roles personalizados tengan el ámbito de las autorizaciones permitidas de CloudAdmin</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1462,17 +1462,13 @@
         </is>
       </c>
       <c r="G17" s="21" t="n"/>
-      <c r="H17" s="15" t="inlineStr">
-        <is>
-          <t>https://github.com/Azure/AzureCAT-AVS/tree/main/networking</t>
-        </is>
-      </c>
+      <c r="H17" s="15" t="n"/>
       <c r="I17" s="15" t="n"/>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
+          <t>fd9f0df4-68dc-4976-b9a9-e6a79f7682c5</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1488,12 +1484,12 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Arquitectura</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las conexiones de ExpressRoute o VPN desde el entorno local a Azure se supervisan mediante el "monitor de conexiones"</t>
+          <t>¿Se ha seleccionado el modelo de conectividad de Azure VMware Solution correcto para el caso de uso del cliente en cuestión?</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1508,13 +1504,17 @@
         </is>
       </c>
       <c r="G18" s="21" t="n"/>
-      <c r="H18" s="15" t="n"/>
+      <c r="H18" s="15" t="inlineStr">
+        <is>
+          <t>https://github.com/Azure/AzureCAT-AVS/tree/main/networking</t>
+        </is>
+      </c>
       <c r="I18" s="15" t="n"/>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>dbf590ce-65de-48e0-9f9c-cbd468266abc</t>
+          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1535,13 +1535,13 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que se crea un monitor de conexión desde un recurso nativo de Azure a una máquina virtual de Azure VMware Solution para supervisar la conexión de ExpressRoute back-end de Azure VMware Solution</t>
+          <t>Asegúrese de que las conexiones de ExpressRoute o VPN desde el entorno local a Azure se supervisan mediante el "monitor de conexiones"</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1556,7 +1556,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>e6a84de5-df43-4d19-a248-1718d5d1e5f6</t>
+          <t>eb710a37-cbc1-4055-8dd5-a936a8bb7cf5</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que se crea un monitor de conexión desde un recurso local a una máquina virtual de Azure VMware Solution para supervisar la conectividad de extremo a extremo</t>
+          <t>Asegúrese de que se crea un monitor de conexión desde un recurso nativo de Azure a una máquina virtual de Azure VMware Solution para supervisar la conexión de ExpressRoute back-end de Azure VMware Solution</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1598,7 +1598,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>25659d35-58fd-4772-99c9-31112d027fe4</t>
+          <t>976e24f2-a7f8-426c-9253-2a92a2a7ed99</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1614,18 +1614,18 @@
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>Enrutamiento</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Cuando se utiliza el servidor de rutas, asegúrese de que no se propaguen más de 200 rutas desde el servidor de rutas a la puerta de enlace de ExR a las instalaciones (límite de ARS). Importante cuando se usa MoN</t>
+          <t>Asegúrese de que se crea un monitor de conexión desde un recurso local a una máquina virtual de Azure VMware Solution para supervisar la conectividad de extremo a extremo</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1640,7 +1640,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
+          <t>f41ce6a0-64f3-4805-bc65-3ab50df01265</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1651,17 +1651,17 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>Seguridad (identidad)</t>
+          <t>Enrutamiento</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>¿Se ha implementado Privileged Identity Management para los roles que administran el recurso de Azure VMware Solution en Azure Portal (no se permiten permisos permanentes)?</t>
+          <t>Cuando se utiliza el servidor de rutas, asegúrese de que no se propaguen más de 1000 rutas desde el servidor de rutas a la puerta de enlace de ExR al entorno local (límite de ARS).</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1682,7 +1682,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
+          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>¿Se han implementado los informes de auditoría de Privileged Identity Management para los roles PIM de Azure VMware Solution?</t>
+          <t>¿Se ha implementado Privileged Identity Management para los roles que administran el recurso de Azure VMware Solution en Azure Portal (no se permiten permisos permanentes)?</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1724,7 +1724,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
+          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Limite el uso de la cuenta de CloudAdmin solo al acceso de emergencia</t>
+          <t>Los informes de auditoría de Privileged Identity Management deben implementarse para los roles PIM de Azure VMware Solution</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1766,7 +1766,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
+          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Cree funciones RBAC personalizadas en vCenter para implementar un modelo de privilegios mínimos dentro de vCenter</t>
+          <t>Si se usa Privileged Identity Management, asegúrese de que se crea una cuenta válida habilitada para Entra ID con un registro SMTP válido para las notificaciones de reemplazo automático de host de Azure VMware Solution. (se requieren permisos permanentes)</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1808,7 +1808,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
+          <t>78c447a8-26b2-4863-af0f-1cac599ef1d5</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1829,13 +1829,13 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Es un proceso definido para rotar periódicamente las credenciales de administrador de la nube (vCenter) y administrador (NSX)</t>
+          <t>Limite el uso de la cuenta de CloudAdmin solo al acceso de emergencia</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1850,7 +1850,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
+          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1871,13 +1871,13 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Uso de un proveedor de identidades centralizado que se usará para las cargas de trabajo (VM) que se ejecutan en Azure VMware Solution</t>
+          <t>Cree funciones RBAC personalizadas en vCenter para implementar un modelo de privilegios mínimos dentro de vCenter</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1891,7 +1891,7 @@
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
+          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1907,12 +1907,12 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>Seguridad (red)</t>
+          <t>Seguridad (identidad)</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>¿Se implementa el filtrado de tráfico este-oeste en NSX-T?</t>
+          <t>Es un proceso definido para rotar periódicamente las credenciales de administrador de la nube (vCenter) y administrador (NSX)</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -1932,7 +1932,7 @@
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
+          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -1948,12 +1948,12 @@
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>Seguridad (red)</t>
+          <t>Seguridad (identidad)</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Las cargas de trabajo de Azure VMware Solution no se exponen directamente a Internet. El tráfico se filtra e inspecciona mediante Azure Application Gateway, Azure Firewall o soluciones de terceros</t>
+          <t>Uso de un proveedor de identidades centralizado que se usará para las cargas de trabajo (VM) que se ejecutan en Azure VMware Solution</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -1973,7 +1973,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
+          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -1994,13 +1994,13 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>La auditoría y el registro se implementan para las solicitudes entrantes de Internet a Azure VMware Solution y a las cargas de trabajo basadas en Azure VMware Solution</t>
+          <t>¿Se implementa el filtrado de tráfico este-oeste en NSX-T?</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2014,7 +2014,7 @@
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
+          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2035,13 +2035,13 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>La supervisión de sesiones se implementa para las conexiones salientes a Internet desde Azure VMware Solution o cargas de trabajo basadas en Azure VMware Solution para identificar actividades sospechosas o malintencionadas</t>
+          <t>Las cargas de trabajo de Azure VMware Solution no se exponen directamente a Internet. El tráfico se filtra e inspecciona mediante Azure Application Gateway, Azure Firewall o soluciones de terceros</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2055,7 +2055,7 @@
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
+          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2076,13 +2076,13 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>¿Está habilitada la protección estándar contra DDoS en la subred de puerta de enlace de ExR/VPN en Azure?</t>
+          <t>La auditoría y el registro se implementan para las solicitudes entrantes de Internet a Azure VMware Solution y a las cargas de trabajo basadas en Azure VMware Solution</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2097,7 +2097,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>334fdf91-c234-4182-a652-75269440b4be</t>
+          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Use una estación de trabajo de acceso con privilegios (PAW) dedicada para administrar Azure VMware Solution, vCenter, NSX Manager y HCX Manager</t>
+          <t>La supervisión de sesiones se implementa para las conexiones salientes a Internet desde Azure VMware Solution o cargas de trabajo basadas en Azure VMware Solution para identificar actividades sospechosas o malintencionadas</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2139,7 +2139,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
+          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2155,12 +2155,12 @@
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>Seguridad (invitado/máquina virtual)</t>
+          <t>Seguridad (red)</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Habilitación de la detección avanzada de amenazas (Microsoft Defender for Cloud, también conocida como ASC) para cargas de trabajo que se ejecutan en Azure VMware Solution</t>
+          <t>¿Está habilitada la protección estándar de DDoS en la subred de puerta de enlace de ExR/VPN en Azure?</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2181,7 +2181,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
+          <t>334fdf91-c234-4182-a652-75269440b4be</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2197,12 +2197,12 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Seguridad (invitado/máquina virtual)</t>
+          <t>Seguridad (red)</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Use Azure ARC for Servers para controlar correctamente las cargas de trabajo que se ejecutan en Azure VMware Solution mediante tecnologías nativas de Azure (Azure ARC for Azure VMware Solution aún no está disponible)</t>
+          <t>Use una estación de trabajo de acceso con privilegios (PAW) dedicada para administrar Azure VMware Solution, vCenter, NSX Manager y HCX Manager</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2223,7 +2223,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
+          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2244,13 +2244,13 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las cargas de trabajo de Azure VMware Solution usen suficiente cifrado de datos durante el tiempo de ejecución (como el cifrado de disco invitado y SQL TDE). (El cifrado de vSAN en reposo es el predeterminado)</t>
+          <t>Habilitación de la detección avanzada de amenazas (Microsoft Defender for Cloud, también conocida como ASC) para cargas de trabajo que se ejecutan en Azure VMware Solution</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
       <c r="E36" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2265,7 +2265,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
+          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2286,13 +2286,13 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Cuando se usa el cifrado en invitado, almacene las claves de cifrado en Azure Key Vault siempre que sea posible</t>
+          <t>Use Azure ARC for Servers para controlar correctamente las cargas de trabajo que se ejecutan en Azure VMware Solution mediante tecnologías nativas de Azure (Azure ARC for Azure VMware Solution aún no está disponible)</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2307,7 +2307,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
+          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2328,13 +2328,13 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la compatibilidad con las actualizaciones de seguridad extendidas está configurada para las cargas de trabajo que se ejecutan en Azure VMware Solution (Azure VMware Solution es apta para ESU)</t>
+          <t>Asegúrese de que las cargas de trabajo de Azure VMware Solution usen suficiente cifrado de datos durante el tiempo de ejecución (como el cifrado de disco invitado y SQL TDE). (El cifrado de vSAN en reposo es el predeterminado)</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2349,7 +2349,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>5ac94222-3e13-4810-9230-81a941741583</t>
+          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2365,18 +2365,18 @@
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza (plataforma)</t>
+          <t>Seguridad (invitado/máquina virtual)</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que se usa la directiva de almacenamiento de plantilla de máquina virtual adecuada</t>
+          <t>Cuando se usa el cifrado en invitado, almacene las claves de cifrado en Azure Key Vault siempre que sea posible</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2391,7 +2391,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
+          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2407,18 +2407,18 @@
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza (plataforma)</t>
+          <t>Seguridad (invitado/máquina virtual)</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que ha solicitado una cuota suficiente, asegurándose de que ha tenido en cuenta el crecimiento y el requisito de recuperación ante desastres</t>
+          <t>Considere la posibilidad de usar la compatibilidad con actualizaciones de seguridad extendidas para las cargas de trabajo que se ejecutan en Azure VMware Solution (Azure VMware Solution es apta para ESU)</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2433,7 +2433,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
+          <t>5ac94222-3e13-4810-9230-81a941741583</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la directiva de error de tolerancia esté implementada para satisfacer sus necesidades de almacenamiento de vSAN</t>
+          <t>Asegúrese de que se utiliza el método de redundancia de datos de vSAN adecuado (especificación RAID)</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2475,7 +2475,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>d88408f3-7273-44c8-96ba-280214590146</t>
+          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2496,13 +2496,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que se comprenden las restricciones de acceso a ESXi, ya que existen límites de acceso que pueden afectar a las soluciones de terceros.</t>
+          <t>Asegúrese de que la directiva de error de tolerancia esté implementada para satisfacer sus necesidades de almacenamiento de vSAN</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2517,7 +2517,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
+          <t>d88408f3-7273-44c8-96ba-280214590146</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2538,13 +2538,13 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de tener una política en torno a la densidad y la eficiencia del host ESXi, teniendo en cuenta el tiempo de espera para solicitar nuevos nodos</t>
+          <t>Asegúrese de que ha solicitado una cuota suficiente, asegurándose de que ha tenido en cuenta el crecimiento y el requisito de recuperación ante desastres</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
       <c r="E43" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2559,7 +2559,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
+          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que existe un buen proceso de administración de costos para Azure VMware Solution: se puede usar Azure Cost Management</t>
+          <t>Asegúrese de que se comprenden las restricciones de acceso a ESXi, ya que existen límites de acceso que pueden afectar a las soluciones de terceros.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2601,7 +2601,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
+          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2622,13 +2622,13 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>¿Se usan instancias reservadas de Azure para optimizar el costo de uso de Azure VMware Solution?</t>
+          <t>Asegúrese de tener una política en torno a la densidad y la eficiencia del host ESXi, teniendo en cuenta el tiempo de espera para solicitar nuevos nodos</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2642,7 +2642,7 @@
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
+          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Tenga en cuenta el uso de Azure Private-Link cuando use otros servicios nativos de Azure</t>
+          <t>Asegúrese de que existe un buen proceso de administración de costos para Azure VMware Solution: se puede usar Azure Cost Management</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2684,7 +2684,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
+          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2700,18 +2700,18 @@
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza (invitado/VM)</t>
+          <t>Gobernanza (plataforma)</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Habilitación de cargas de trabajo de máquina virtual invitada de Microsoft Defender for Cloud for Azure VMware Solution</t>
+          <t>¿Se usan instancias reservadas de Azure para optimizar el costo de uso de Azure VMware Solution?</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2726,7 +2726,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
+          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2742,12 +2742,12 @@
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza (invitado/VM)</t>
+          <t>Gobernanza (plataforma)</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Uso de servidores habilitados para Azure Arc para administrar las cargas de trabajo de máquinas virtuales invitadas de Azure VMware Solution</t>
+          <t>Tenga en cuenta el uso de Azure Private-Link cuando use otros servicios nativos de Azure</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2767,7 +2767,7 @@
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
+          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2783,12 +2783,12 @@
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Gobernanza (invitado/VM)</t>
+          <t>Gobernanza (plataforma)</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Habilitación del registro de diagnósticos y métricas en Azure VMware Solution</t>
+          <t>Asegúrese de que todos los recursos necesarios residen en las mismas zonas de disponibilidad de Azure</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -2808,7 +2808,7 @@
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
+          <t>db611712-6904-40b4-aa3d-3e0803276d4b</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Implementación de los agentes de Log Analytics en cargas de trabajo de máquinas virtuales invitadas de Azure VMware Solution</t>
+          <t>Habilitación de cargas de trabajo de máquina virtual invitada de Microsoft Defender for Cloud for Azure VMware Solution</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -2850,7 +2850,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
+          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que dispone de una directiva y una solución de copia de seguridad documentadas e implementadas para las cargas de trabajo de máquina virtual de Azure VMware Solution</t>
+          <t>Uso de servidores habilitados para Azure Arc para administrar las cargas de trabajo de máquinas virtuales invitadas de Azure VMware Solution</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -2892,7 +2892,7 @@
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
+          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -2908,18 +2908,18 @@
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>Gobernanza (invitado/VM)</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Uso de Microsoft Defender for Cloud para la supervisión del cumplimiento de las cargas de trabajo que se ejecutan en Azure VMware Solution</t>
+          <t>Habilitación del registro de diagnósticos y métricas en Azure VMware Solution</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2934,7 +2934,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
+          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -2950,12 +2950,12 @@
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>Gobernanza (invitado/VM)</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>¿Se agregan las líneas base de cumplimiento aplicables a Microsoft Defender for Cloud?</t>
+          <t>Implementación de los agentes de Log Analytics en cargas de trabajo de máquinas virtuales invitadas de Azure VMware Solution</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -2975,7 +2975,7 @@
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
+          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -2991,18 +2991,18 @@
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>Conformidad</t>
+          <t>Gobernanza (invitado/VM)</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>¿Se evaluó la residencia de datos al seleccionar las regiones de Azure que se usarán para la implementación de Azure VMware Solution?</t>
+          <t>Asegúrese de que dispone de una directiva y una solución de copia de seguridad documentadas e implementadas para las cargas de trabajo de máquina virtual de Azure VMware Solution</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3017,7 +3017,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
+          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3038,13 +3038,13 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>¿Son claras y documentadas las implicaciones del procesamiento de datos (proveedor de servicios / modelo de consumidor de servicios)?</t>
+          <t>Uso de Microsoft Defender for Cloud para la supervisión del cumplimiento de las cargas de trabajo que se ejecutan en Azure VMware Solution</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
       <c r="E55" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3058,7 +3058,7 @@
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
+          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3069,23 +3069,23 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Creación de paneles para habilitar la información principal de supervisión de Azure VMware Solution</t>
+          <t>¿Se agregan las líneas base de cumplimiento aplicables a Microsoft Defender for Cloud?</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3099,7 +3099,7 @@
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
+          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3110,17 +3110,17 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Creación de alertas de advertencia para umbrales críticos para alertas automáticas sobre el rendimiento de Azure VMware Solution (CPU &gt;80 %, memoria media &gt;80 %, vSAN &gt;70 %)</t>
+          <t>¿Se evaluó la residencia de datos al seleccionar las regiones de Azure que se usarán para la implementación de Azure VMware Solution?</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3140,7 +3140,7 @@
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
+          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3151,17 +3151,17 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que se crea una alerta crítica para supervisar si el consumo de vSAN es inferior al 75 %, ya que se trata de un umbral de soporte de VMware</t>
+          <t>¿Son claras y documentadas las implicaciones del procesamiento de datos (proveedor de servicios / modelo de consumidor de servicios)?</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3181,7 +3181,7 @@
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
+          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3192,23 +3192,23 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Gobernanza</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Conformidad</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las alertas están configuradas para las alertas y notificaciones de Azure Service Health</t>
+          <t>Considere la posibilidad de usar CMK (clave administrada por el cliente) para vSAN solo si es necesario por motivos de cumplimiento.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3222,7 +3222,7 @@
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
+          <t>547c1747-dc56-4068-a714-435cd19dd244</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3243,13 +3243,13 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Configure el registro de Azure VMware Solution para que se envíe a una cuenta de Azure Storage o Azure EventHub para su procesamiento</t>
+          <t>Creación de paneles para habilitar la información principal de supervisión de Azure VMware Solution</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
       <c r="E60" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3263,7 +3263,7 @@
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
+          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3284,13 +3284,13 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Si se requiere una visión profunda de VMware vSphere: ¿Se utiliza vRealize Operations o vRealize Network Insights en la solución?</t>
+          <t>Creación de alertas de advertencia para umbrales críticos para alertas automáticas sobre el rendimiento de Azure VMware Solution (CPU &gt;80 %, memoria media &gt;80 %, vSAN &gt;70 %)</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
+          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3320,12 +3320,12 @@
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que la directiva de almacenamiento de vSAN para las máquinas virtuales NO sea la directiva de almacenamiento predeterminada, ya que esta directiva aplica el aprovisionamiento grueso</t>
+          <t>Asegúrese de que se crea una alerta crítica para supervisar si el consumo de vSAN es inferior al 75 %, ya que se trata de un umbral de soporte de VMware</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3345,7 +3345,7 @@
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
+          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3361,18 +3361,18 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las bibliotecas de contenido de vSphere no se coloquen en vSAN, ya que vSAN es un recurso finito</t>
+          <t>Asegúrese de que las alertas están configuradas para las alertas y notificaciones de Azure Service Health</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
       <c r="E63" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3387,7 +3387,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
+          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3403,12 +3403,12 @@
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que los repositorios de datos de la solución de copia de seguridad se almacenen fuera del almacenamiento de vSAN. Ya sea en Azure nativo o en un almacén de datos respaldado por un grupo de discos</t>
+          <t>Configure el registro de Azure VMware Solution para que se envíe a una cuenta de Azure Storage o Azure EventHub para su procesamiento</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3429,7 +3429,7 @@
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
+          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3445,18 +3445,18 @@
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las cargas de trabajo que se ejecutan en Azure VMware Solution se administran de forma híbrida mediante Azure Arc para servidores (Arc para Azure VMware Solution está en versión preliminar)</t>
+          <t>Si se requiere una visión profunda de VMware vSphere: ¿Se utiliza vRealize Operations o vRealize Network Insights en la solución?</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3471,7 +3471,7 @@
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
+          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3492,13 +3492,13 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las cargas de trabajo que se ejecutan en Azure VMware Solution se supervisan mediante Azure Log Analytics y Azure Monitor</t>
+          <t>Asegúrese de que la directiva de almacenamiento de vSAN para las máquinas virtuales NO sea la directiva de almacenamiento predeterminada, ya que esta directiva aplica el aprovisionamiento grueso</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3512,7 +3512,7 @@
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
+          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Inclusión de cargas de trabajo que se ejecutan en Azure VMware Solution en las herramientas de administración de actualizaciones existentes o en Azure Update Management</t>
+          <t>Asegúrese de que las bibliotecas de contenido de vSphere no se coloquen en vSAN, ya que vSAN es un recurso finito</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3554,7 +3554,7 @@
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
+          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Uso de Azure Policy para incorporar cargas de trabajo de Azure VMware Solution en las soluciones de administración, supervisión y seguridad de Azure</t>
+          <t>Asegúrese de que los repositorios de datos de la solución de copia de seguridad se almacenen fuera del almacenamiento de vSAN. Ya sea en Azure nativo o en un almacén de datos respaldado por un grupo de discos</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3596,7 +3596,7 @@
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
+          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3617,13 +3617,13 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Cuando se use ANF para ampliar el almacenamiento de Azure VMware Solution, asegúrese de que se usa solo en el nivel de máquina virtual por ahora (ANF como almacén de datos NFS todavía está en versión preliminar privada)</t>
+          <t>Asegúrese de que las cargas de trabajo que se ejecutan en Azure VMware Solution se administran de forma híbrida mediante Azure Arc para servidores (Arc para Azure VMware Solution está en versión preliminar)</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3638,7 +3638,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>ab79b188-dab8-4193-8c9f-c9d1bb77036f</t>
+          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -3654,12 +3654,12 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las cargas de trabajo que se ejecutan en Azure VMware Solution se incorporan a Microsoft Defender for Cloud</t>
+          <t>Asegúrese de que las cargas de trabajo que se ejecutan en Azure VMware Solution se supervisan mediante Azure Log Analytics y Azure Monitor</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -3680,7 +3680,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
+          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -3691,17 +3691,17 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Copia de seguridad</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las copias de seguridad no se almacenen en vSAN, ya que vSAN es un recurso finito</t>
+          <t>Inclusión de cargas de trabajo que se ejecutan en Azure VMware Solution en las herramientas de administración de actualizaciones existentes o en Azure Update Management</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -3722,7 +3722,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
+          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -3733,17 +3733,17 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>Recuperación ante desastres</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Uso de VMware Site Recovery Manager cuando ambos sitios son Azure VMware Solution</t>
+          <t>Uso de Azure Policy para incorporar cargas de trabajo de Azure VMware Solution en las soluciones de administración, supervisión y seguridad de Azure</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -3764,7 +3764,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
+          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -3775,17 +3775,17 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>Recuperación ante desastres</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Uso de Azure Site Recovery cuando la tecnología de recuperación ante desastres sea IaaS nativa de Azure</t>
+          <t>Asegúrese de que las cargas de trabajo que se ejecutan en Azure VMware Solution se incorporan a Microsoft Defender for Cloud</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -3806,7 +3806,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
+          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -3822,18 +3822,18 @@
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>Recuperación ante desastres</t>
+          <t>Copia de seguridad</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Utilice planes de recuperación automatizados con cualquiera de las soluciones ante desastres, evite las tareas manuales tanto como sea posible</t>
+          <t>Asegúrese de que las copias de seguridad no se almacenen en vSAN, ya que vSAN es un recurso finito</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3848,7 +3848,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
+          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Usar el par de regiones geopolíticas como entorno secundario de recuperación ante desastres</t>
+          <t>¿Se han considerado todas las soluciones de recuperación ante desastres y se ha decidido por la mejor solución para su negocio? [SRM/JetStream/Zerto/Veeam/...]</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -3890,7 +3890,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
+          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -3911,13 +3911,13 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Utilice 2 espacios de direcciones diferentes entre las regiones, por ejemplo: 10.0.0.0/16 y 192.168.0.0/16 para las diferentes regiones</t>
+          <t>Uso de Azure Site Recovery cuando la tecnología de recuperación ante desastres sea IaaS nativa de Azure</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3932,7 +3932,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
+          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -3953,13 +3953,13 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>¿Se usará Global Reach de ExpressRoute para la conectividad entre las nubes privadas de Azure VMware Solution principal y secundaria, o el enrutamiento se realiza a través de aplicaciones virtuales de red?</t>
+          <t>Utilice planes de recuperación automatizados con cualquiera de las soluciones ante desastres, evite las tareas manuales tanto como sea posible</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3974,7 +3974,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
+          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -3990,12 +3990,12 @@
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>Continuidad del negocio</t>
+          <t>Recuperación ante desastres</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Utilice MABS como su solución de copia de seguridad</t>
+          <t>Usar el par de regiones geopolíticas como entorno secundario de recuperación ante desastres</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4016,7 +4016,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
+          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4032,18 +4032,18 @@
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>Continuidad del negocio</t>
+          <t>Recuperación ante desastres</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Implemente la solución de copia de seguridad en la misma región que la nube privada de Azure VMware Solution</t>
+          <t>Utilice 2 espacios de direcciones diferentes entre las regiones, por ejemplo: 10.0.0.0/16 y 192.168.0.0/16 para las diferentes regiones</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4058,7 +4058,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
+          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4074,12 +4074,12 @@
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>Continuidad del negocio</t>
+          <t>Recuperación ante desastres</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Es preferible implementar MABS fuera del SDDC como IaaS nativa de Azure</t>
+          <t>¿Se usará Global Reach de ExpressRoute para la conectividad entre las nubes privadas de Azure VMware Solution principal y secundaria, o el enrutamiento se realiza a través de aplicaciones virtuales de red?</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4100,7 +4100,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
+          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4121,13 +4121,13 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>¿Existe un proceso para solicitar una restauración de los componentes de VMware administrados por la plataforma Azure?</t>
+          <t>¿Se han considerado todas las soluciones de copia de seguridad y se ha decidido por la mejor solución para su negocio? [ MABS/CommVault/Metallic.io/Veeam/ . ]</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4142,7 +4142,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
+          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4153,23 +4153,23 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>Automatización de la plataforma</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Estrategia de implementación</t>
+          <t>Continuidad del negocio</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las implementaciones manuales, se deben documentar todas las configuraciones e implementaciones</t>
+          <t>Implemente la solución de copia de seguridad en la misma región que la nube privada de Azure VMware Solution</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4184,7 +4184,7 @@
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
+          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4195,23 +4195,23 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>Automatización de la plataforma</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>Estrategia de implementación</t>
+          <t>Continuidad del negocio</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las implementaciones manuales, considere la posibilidad de implementar bloqueos de recursos para evitar acciones accidentales en la nube privada de Azure VMware Solution</t>
+          <t>Implementación de la solución de copia de seguridad fuera de vSan, en componentes nativos de Azure</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4226,7 +4226,7 @@
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
+          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4237,17 +4237,17 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>Automatización de la plataforma</t>
+          <t>BCDR</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>Implementación automatizada</t>
+          <t>Continuidad del negocio</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Para implementaciones automatizadas, implemente una nube privada mínima y escale según sea necesario</t>
+          <t>¿Existe un proceso para solicitar una restauración de los componentes de VMware administrados por la plataforma Azure?</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4268,7 +4268,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
+          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4284,12 +4284,12 @@
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>Implementación automatizada</t>
+          <t>Estrategia de implementación</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>En el caso de las implementaciones automatizadas, solicite o reserve una cuota antes de iniciar la implementación</t>
+          <t>En el caso de las implementaciones manuales, se deben documentar todas las configuraciones e implementaciones</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4310,7 +4310,7 @@
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
+          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4326,12 +4326,12 @@
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>Implementación automatizada</t>
+          <t>Estrategia de implementación</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>En el caso de la implementación automatizada, asegúrese de que se crean bloqueos de recursos relevantes a través de la automatización o a través de Azure Policy para una gobernanza adecuada</t>
+          <t>En el caso de las implementaciones manuales, considere la posibilidad de implementar bloqueos de recursos para evitar acciones accidentales en la nube privada de Azure VMware Solution</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4352,7 +4352,7 @@
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
+          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4368,12 +4368,12 @@
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>Conectividad automatizada</t>
+          <t>Implementación automatizada</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Implemente nombres comprensibles para las claves de autorización ExR a fin de permitir una fácil identificación de la finalidad y el uso de las claves</t>
+          <t>Para implementaciones automatizadas, implemente una nube privada mínima y escale según sea necesario</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4394,7 +4394,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
+          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4410,12 +4410,12 @@
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>Conectividad automatizada</t>
+          <t>Implementación automatizada</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Uso de Key Vault para almacenar secretos y claves de autorización cuando se usan principios de servicio independientes para implementar Azure VMware Solution y ExpressRoute</t>
+          <t>En el caso de las implementaciones automatizadas, solicite o reserve una cuota antes de iniciar la implementación</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4436,7 +4436,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
+          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4452,12 +4452,12 @@
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>Conectividad automatizada</t>
+          <t>Implementación automatizada</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Defina dependencias de recursos para serializar acciones en IaC cuando sea necesario implementar muchos recursos en Azure VMware Solution, ya que Azure VMware Solution solo admite un número limitado de operaciones paralelas.</t>
+          <t>En el caso de la implementación automatizada, asegúrese de que se crean bloqueos de recursos relevantes a través de la automatización o a través de Azure Policy para una gobernanza adecuada</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4478,7 +4478,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
+          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Al realizar la configuración automatizada de segmentos de NSX-T con una única puerta de enlace de nivel 1, use las API de Azure Portal en lugar de las API de NSX-Manager</t>
+          <t>Implemente nombres comprensibles para las claves de autorización ExR para permitir una fácil identificación del propósito y uso de las claves.</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -4520,7 +4520,7 @@
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
+          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -4536,18 +4536,18 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>Báscula automatizada</t>
+          <t>Conectividad automatizada</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Si tiene la intención de usar el escalado horizontal automatizado, asegúrese de solicitar una cuota suficiente de Azure VMware Solution para las suscripciones que ejecutan Azure VMware Solution</t>
+          <t>Uso de Key Vault para almacenar secretos y claves de autorización cuando se usan principios de servicio independientes para implementar Azure VMware Solution y ExpressRoute</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4562,7 +4562,7 @@
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
+          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -4578,18 +4578,18 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Báscula automatizada</t>
+          <t>Conectividad automatizada</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Cuando tenga la intención de usar la reducción horizontal automatizada, asegúrese de tener en cuenta los requisitos de la directiva de almacenamiento antes de realizar dicha acción</t>
+          <t>Defina dependencias de recursos para serializar acciones en IaC cuando sea necesario implementar muchos recursos en Azure VMware Solution, ya que Azure VMware Solution solo admite un número limitado de operaciones paralelas.</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4604,7 +4604,7 @@
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
+          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -4620,18 +4620,18 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>Báscula automatizada</t>
+          <t>Conectividad automatizada</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Las operaciones de escalado siempre deben serializarse dentro de un único SDDC, ya que solo se puede realizar una operación de escalado a la vez (incluso cuando se utilizan varios clústeres)</t>
+          <t>Al realizar la configuración automatizada de segmentos de NSX-T con una única puerta de enlace de nivel 1, use las API de Azure Portal en lugar de las API de NSX-Manager</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4646,7 +4646,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
+          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Considerar y validar las operaciones de escalado en soluciones de terceros utilizadas en la arquitectura (compatibles o no)</t>
+          <t>Si tiene la intención de usar el escalado horizontal automatizado, asegúrese de solicitar una cuota suficiente de Azure VMware Solution para las suscripciones que ejecutan Azure VMware Solution</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -4688,7 +4688,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
+          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Defina y aplique límites máximos de escalado vertical y horizontal para su entorno en las automatizaciones</t>
+          <t>Cuando tenga la intención de usar la reducción horizontal automatizada, asegúrese de tener en cuenta los requisitos de la directiva de almacenamiento antes de realizar dicha acción</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -4730,7 +4730,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
+          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Implemente reglas de supervisión para supervisar las operaciones de escalado automatizadas y supervisar el éxito y el fracaso para permitir respuestas adecuadas (automatizadas)</t>
+          <t>Las operaciones de escalado siempre deben serializarse dentro de un único SDDC, ya que solo se puede realizar una operación de escalado a la vez (incluso cuando se utilizan varios clústeres)</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -4772,7 +4772,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
+          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -4781,271 +4781,719 @@
       <c r="P96" s="25" t="n"/>
     </row>
     <row r="97" ht="16.5" customHeight="1">
-      <c r="A97" s="21" t="n"/>
-      <c r="B97" s="21" t="n"/>
-      <c r="C97" s="21" t="n"/>
+      <c r="A97" s="21" t="inlineStr">
+        <is>
+          <t>Automatización de la plataforma</t>
+        </is>
+      </c>
+      <c r="B97" s="21" t="inlineStr">
+        <is>
+          <t>Báscula automatizada</t>
+        </is>
+      </c>
+      <c r="C97" s="21" t="inlineStr">
+        <is>
+          <t>Considerar y validar las operaciones de escalado en soluciones de terceros utilizadas en la arquitectura (compatibles o no)</t>
+        </is>
+      </c>
       <c r="D97" s="21" t="n"/>
-      <c r="E97" s="21" t="n"/>
+      <c r="E97" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="n"/>
       <c r="I97" s="15" t="n"/>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
-      <c r="L97" s="25" t="n"/>
+      <c r="L97" s="25" t="inlineStr">
+        <is>
+          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
+        </is>
+      </c>
       <c r="M97" s="25" t="n"/>
       <c r="N97" s="25" t="n"/>
       <c r="O97" s="25" t="n"/>
       <c r="P97" s="25" t="n"/>
     </row>
     <row r="98" ht="16.5" customHeight="1">
-      <c r="A98" s="21" t="n"/>
-      <c r="B98" s="21" t="n"/>
-      <c r="C98" s="21" t="n"/>
+      <c r="A98" s="21" t="inlineStr">
+        <is>
+          <t>Automatización de la plataforma</t>
+        </is>
+      </c>
+      <c r="B98" s="21" t="inlineStr">
+        <is>
+          <t>Báscula automatizada</t>
+        </is>
+      </c>
+      <c r="C98" s="21" t="inlineStr">
+        <is>
+          <t>Defina y aplique límites máximos de escalado vertical y horizontal para su entorno en las automatizaciones</t>
+        </is>
+      </c>
       <c r="D98" s="21" t="n"/>
-      <c r="E98" s="21" t="n"/>
+      <c r="E98" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="n"/>
       <c r="I98" s="15" t="n"/>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
-      <c r="L98" s="25" t="n"/>
+      <c r="L98" s="25" t="inlineStr">
+        <is>
+          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
+        </is>
+      </c>
       <c r="M98" s="25" t="n"/>
       <c r="N98" s="25" t="n"/>
       <c r="O98" s="25" t="n"/>
       <c r="P98" s="25" t="n"/>
     </row>
     <row r="99" ht="16.5" customHeight="1">
-      <c r="A99" s="21" t="n"/>
-      <c r="B99" s="21" t="n"/>
-      <c r="C99" s="21" t="n"/>
+      <c r="A99" s="21" t="inlineStr">
+        <is>
+          <t>Automatización de la plataforma</t>
+        </is>
+      </c>
+      <c r="B99" s="21" t="inlineStr">
+        <is>
+          <t>Báscula automatizada</t>
+        </is>
+      </c>
+      <c r="C99" s="21" t="inlineStr">
+        <is>
+          <t>Implemente reglas de supervisión para supervisar las operaciones de escalado automatizadas y supervisar el éxito y el fracaso para permitir respuestas adecuadas (automatizadas)</t>
+        </is>
+      </c>
       <c r="D99" s="21" t="n"/>
-      <c r="E99" s="21" t="n"/>
+      <c r="E99" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="n"/>
       <c r="I99" s="15" t="n"/>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
-      <c r="L99" s="25" t="n"/>
+      <c r="L99" s="25" t="inlineStr">
+        <is>
+          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
+        </is>
+      </c>
       <c r="M99" s="25" t="n"/>
       <c r="N99" s="25" t="n"/>
       <c r="O99" s="25" t="n"/>
       <c r="P99" s="25" t="n"/>
     </row>
     <row r="100" ht="16.5" customHeight="1">
-      <c r="A100" s="21" t="n"/>
-      <c r="B100" s="21" t="n"/>
-      <c r="C100" s="21" t="n"/>
+      <c r="A100" s="21" t="inlineStr">
+        <is>
+          <t>Migración</t>
+        </is>
+      </c>
+      <c r="B100" s="21" t="inlineStr">
+        <is>
+          <t>Arquitectura</t>
+        </is>
+      </c>
+      <c r="C100" s="21" t="inlineStr">
+        <is>
+          <t>Al usar MON, tenga en cuenta los límites de las máquinas virtuales configuradas simultáneamente (límite de MON para HCX [400 - estándar, 1000 - dispositivo más grande])</t>
+        </is>
+      </c>
       <c r="D100" s="21" t="n"/>
-      <c r="E100" s="21" t="n"/>
+      <c r="E100" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G100" s="21" t="n"/>
-      <c r="H100" s="15" t="n"/>
-      <c r="I100" s="15" t="n"/>
+      <c r="H100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
-      <c r="L100" s="25" t="n"/>
+      <c r="L100" s="25" t="inlineStr">
+        <is>
+          <t>c5972cd4-cd21-4b07-9036-f5e6b4bfd3d5</t>
+        </is>
+      </c>
       <c r="M100" s="25" t="n"/>
       <c r="N100" s="25" t="n"/>
       <c r="O100" s="25" t="n"/>
       <c r="P100" s="25" t="n"/>
     </row>
     <row r="101" ht="16.5" customHeight="1">
-      <c r="A101" s="21" t="n"/>
-      <c r="B101" s="21" t="n"/>
-      <c r="C101" s="21" t="n"/>
+      <c r="A101" s="21" t="inlineStr">
+        <is>
+          <t>Migración</t>
+        </is>
+      </c>
+      <c r="B101" s="21" t="inlineStr">
+        <is>
+          <t>Arquitectura</t>
+        </is>
+      </c>
+      <c r="C101" s="21" t="inlineStr">
+        <is>
+          <t>Al usar MON, no puede habilitar MON en más de 100 extensiones de red</t>
+        </is>
+      </c>
       <c r="D101" s="21" t="n"/>
-      <c r="E101" s="21" t="n"/>
+      <c r="E101" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G101" s="21" t="n"/>
-      <c r="H101" s="15" t="n"/>
-      <c r="I101" s="15" t="n"/>
+      <c r="H101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
-      <c r="L101" s="25" t="n"/>
+      <c r="L101" s="25" t="inlineStr">
+        <is>
+          <t>be1f38cf-03a8-422b-b463-cbbbc8ac299e</t>
+        </is>
+      </c>
       <c r="M101" s="25" t="n"/>
       <c r="N101" s="25" t="n"/>
       <c r="O101" s="25" t="n"/>
       <c r="P101" s="25" t="n"/>
     </row>
     <row r="102" ht="16.5" customHeight="1">
-      <c r="A102" s="21" t="n"/>
-      <c r="B102" s="21" t="n"/>
-      <c r="C102" s="21" t="n"/>
+      <c r="A102" s="21" t="inlineStr">
+        <is>
+          <t>Migración</t>
+        </is>
+      </c>
+      <c r="B102" s="21" t="inlineStr">
+        <is>
+          <t>Gestión de redes</t>
+        </is>
+      </c>
+      <c r="C102" s="21" t="inlineStr">
+        <is>
+          <t>Si utiliza una conexión VPN para migraciones, ajuste el tamaño de su MTU en consecuencia.</t>
+        </is>
+      </c>
       <c r="D102" s="21" t="n"/>
-      <c r="E102" s="21" t="n"/>
+      <c r="E102" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="n"/>
       <c r="I102" s="15" t="n"/>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
-      <c r="L102" s="25" t="n"/>
+      <c r="L102" s="25" t="inlineStr">
+        <is>
+          <t>bc91a43d-90da-4e2c-a881-4706f7c1cbaf</t>
+        </is>
+      </c>
       <c r="M102" s="25" t="n"/>
       <c r="N102" s="25" t="n"/>
       <c r="O102" s="25" t="n"/>
       <c r="P102" s="25" t="n"/>
     </row>
     <row r="103" ht="16.5" customHeight="1">
-      <c r="A103" s="21" t="n"/>
-      <c r="B103" s="21" t="n"/>
-      <c r="C103" s="21" t="n"/>
+      <c r="A103" s="21" t="inlineStr">
+        <is>
+          <t>Migración</t>
+        </is>
+      </c>
+      <c r="B103" s="21" t="inlineStr">
+        <is>
+          <t>Gestión de redes</t>
+        </is>
+      </c>
+      <c r="C103" s="21" t="inlineStr">
+        <is>
+          <t>En el caso de las regiones de baja conectividad que se conectan a Azure (500 Mbps o menos), considere la posibilidad de implementar el dispositivo de optimización de WAN de HCX</t>
+        </is>
+      </c>
       <c r="D103" s="21" t="n"/>
-      <c r="E103" s="21" t="n"/>
+      <c r="E103" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="n"/>
       <c r="I103" s="15" t="n"/>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
-      <c r="L103" s="25" t="n"/>
+      <c r="L103" s="25" t="inlineStr">
+        <is>
+          <t>e614658d-d457-4e92-9139-b821102cad6e</t>
+        </is>
+      </c>
       <c r="M103" s="25" t="n"/>
       <c r="N103" s="25" t="n"/>
       <c r="O103" s="25" t="n"/>
       <c r="P103" s="25" t="n"/>
     </row>
     <row r="104" ht="16.5" customHeight="1">
-      <c r="A104" s="21" t="n"/>
-      <c r="B104" s="21" t="n"/>
-      <c r="C104" s="21" t="n"/>
+      <c r="A104" s="21" t="inlineStr">
+        <is>
+          <t>Migración</t>
+        </is>
+      </c>
+      <c r="B104" s="21" t="inlineStr">
+        <is>
+          <t>Proceso</t>
+        </is>
+      </c>
+      <c r="C104" s="21" t="inlineStr">
+        <is>
+          <t>Asegúrese de que las migraciones se inicien desde el dispositivo local y NO desde el dispositivo en la nube (NO realice una migración inversa)</t>
+        </is>
+      </c>
       <c r="D104" s="21" t="n"/>
-      <c r="E104" s="21" t="n"/>
+      <c r="E104" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="n"/>
       <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
-      <c r="L104" s="25" t="n"/>
+      <c r="L104" s="25" t="inlineStr">
+        <is>
+          <t>ae01e6e8-43e5-42f4-922d-928c1b1cd521</t>
+        </is>
+      </c>
       <c r="M104" s="25" t="n"/>
       <c r="N104" s="25" t="n"/>
       <c r="O104" s="25" t="n"/>
       <c r="P104" s="25" t="n"/>
     </row>
     <row r="105" ht="16.5" customHeight="1">
-      <c r="A105" s="21" t="n"/>
-      <c r="B105" s="21" t="n"/>
-      <c r="C105" s="21" t="n"/>
+      <c r="A105" s="21" t="inlineStr">
+        <is>
+          <t>Almacenamiento de datos</t>
+        </is>
+      </c>
+      <c r="B105" s="21" t="inlineStr">
+        <is>
+          <t>Arquitectura</t>
+        </is>
+      </c>
+      <c r="C105" s="21" t="inlineStr">
+        <is>
+          <t>Cuando se usa Azure NetApp Files para ampliar el almacenamiento de Azure VMware Solution, considere la posibilidad de usarlo como almacén de datos de VMware en lugar de adjuntarlo directamente a una máquina virtual.</t>
+        </is>
+      </c>
       <c r="D105" s="21" t="n"/>
-      <c r="E105" s="21" t="n"/>
+      <c r="E105" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G105" s="21" t="n"/>
-      <c r="H105" s="15" t="n"/>
+      <c r="H105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+        </is>
+      </c>
       <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
-      <c r="L105" s="25" t="n"/>
+      <c r="L105" s="25" t="inlineStr">
+        <is>
+          <t>e54a29a9-de39-4ac0-b7c2-8dc935657202</t>
+        </is>
+      </c>
       <c r="M105" s="25" t="n"/>
       <c r="N105" s="25" t="n"/>
       <c r="O105" s="25" t="n"/>
       <c r="P105" s="25" t="n"/>
     </row>
     <row r="106" ht="16.5" customHeight="1">
-      <c r="A106" s="21" t="n"/>
-      <c r="B106" s="21" t="n"/>
-      <c r="C106" s="21" t="n"/>
+      <c r="A106" s="21" t="inlineStr">
+        <is>
+          <t>Almacenamiento de datos</t>
+        </is>
+      </c>
+      <c r="B106" s="21" t="inlineStr">
+        <is>
+          <t>Arquitectura</t>
+        </is>
+      </c>
+      <c r="C106" s="21" t="inlineStr">
+        <is>
+          <t>Asegúrese de que se usa una puerta de enlace de ExpressRoute dedicada para soluciones de almacenamiento de datos externos</t>
+        </is>
+      </c>
       <c r="D106" s="21" t="n"/>
-      <c r="E106" s="21" t="n"/>
+      <c r="E106" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G106" s="21" t="n"/>
-      <c r="H106" s="15" t="n"/>
+      <c r="H106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="I106" s="15" t="n"/>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
-      <c r="L106" s="25" t="n"/>
+      <c r="L106" s="25" t="inlineStr">
+        <is>
+          <t>bff4564b-0d93-44a3-98b2-63e7dd60513a</t>
+        </is>
+      </c>
       <c r="M106" s="25" t="n"/>
       <c r="N106" s="25" t="n"/>
       <c r="O106" s="25" t="n"/>
       <c r="P106" s="25" t="n"/>
     </row>
     <row r="107" ht="16.5" customHeight="1">
-      <c r="A107" s="21" t="n"/>
-      <c r="B107" s="21" t="n"/>
-      <c r="C107" s="21" t="n"/>
+      <c r="A107" s="21" t="inlineStr">
+        <is>
+          <t>Almacenamiento de datos</t>
+        </is>
+      </c>
+      <c r="B107" s="21" t="inlineStr">
+        <is>
+          <t>Arquitectura</t>
+        </is>
+      </c>
+      <c r="C107" s="21" t="inlineStr">
+        <is>
+          <t>Asegúrese de que FastPath está habilitado en la puerta de enlace de ExpressRoute que se usa para las soluciones de almacenamiento de datos externos</t>
+        </is>
+      </c>
       <c r="D107" s="21" t="n"/>
-      <c r="E107" s="21" t="n"/>
+      <c r="E107" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G107" s="21" t="n"/>
-      <c r="H107" s="15" t="n"/>
+      <c r="H107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="I107" s="15" t="n"/>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
-      <c r="L107" s="25" t="n"/>
+      <c r="L107" s="25" t="inlineStr">
+        <is>
+          <t>3649906e-bad3-48ea-b53c-c7de1d8aaab3</t>
+        </is>
+      </c>
       <c r="M107" s="25" t="n"/>
       <c r="N107" s="25" t="n"/>
       <c r="O107" s="25" t="n"/>
       <c r="P107" s="25" t="n"/>
     </row>
     <row r="108" ht="16.5" customHeight="1">
-      <c r="A108" s="21" t="n"/>
-      <c r="B108" s="21" t="n"/>
-      <c r="C108" s="21" t="n"/>
+      <c r="A108" s="21" t="inlineStr">
+        <is>
+          <t>Clúster extendido</t>
+        </is>
+      </c>
+      <c r="B108" s="21" t="inlineStr">
+        <is>
+          <t>Arquitectura</t>
+        </is>
+      </c>
+      <c r="C108" s="21" t="inlineStr">
+        <is>
+          <t>Si utiliza un clúster ampliado, asegúrese de que la solución de recuperación ante desastres seleccionada sea compatible con el proveedor</t>
+        </is>
+      </c>
       <c r="D108" s="21" t="n"/>
-      <c r="E108" s="21" t="n"/>
+      <c r="E108" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G108" s="21" t="n"/>
-      <c r="H108" s="15" t="n"/>
+      <c r="H108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
-      <c r="L108" s="25" t="n"/>
+      <c r="L108" s="25" t="inlineStr">
+        <is>
+          <t>571549ab-8153-4d89-b89d-c7b33be2b1a2</t>
+        </is>
+      </c>
       <c r="M108" s="25" t="n"/>
       <c r="N108" s="25" t="n"/>
       <c r="O108" s="25" t="n"/>
       <c r="P108" s="25" t="n"/>
     </row>
     <row r="109" ht="16.5" customHeight="1">
-      <c r="A109" s="21" t="n"/>
-      <c r="B109" s="21" t="n"/>
-      <c r="C109" s="21" t="n"/>
+      <c r="A109" s="21" t="inlineStr">
+        <is>
+          <t>Clúster extendido</t>
+        </is>
+      </c>
+      <c r="B109" s="21" t="inlineStr">
+        <is>
+          <t>Arquitectura</t>
+        </is>
+      </c>
+      <c r="C109" s="21" t="inlineStr">
+        <is>
+          <t>Si utiliza un clúster ampliado, asegúrese de que el Acuerdo de Nivel de Servicio proporcionado cumpla sus requisitos</t>
+        </is>
+      </c>
       <c r="D109" s="21" t="n"/>
-      <c r="E109" s="21" t="n"/>
+      <c r="E109" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G109" s="21" t="n"/>
-      <c r="H109" s="15" t="n"/>
+      <c r="H109" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="I109" s="15" t="n"/>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
-      <c r="L109" s="25" t="n"/>
+      <c r="L109" s="25" t="inlineStr">
+        <is>
+          <t>4c486b6d-8bdc-4059-acf7-5ee8a1309888</t>
+        </is>
+      </c>
       <c r="M109" s="25" t="n"/>
       <c r="N109" s="25" t="n"/>
       <c r="O109" s="25" t="n"/>
       <c r="P109" s="25" t="n"/>
     </row>
     <row r="110" ht="16.5" customHeight="1">
-      <c r="A110" s="21" t="n"/>
-      <c r="B110" s="21" t="n"/>
-      <c r="C110" s="21" t="n"/>
+      <c r="A110" s="21" t="inlineStr">
+        <is>
+          <t>Clúster extendido</t>
+        </is>
+      </c>
+      <c r="B110" s="21" t="inlineStr">
+        <is>
+          <t>Arquitectura</t>
+        </is>
+      </c>
+      <c r="C110" s="21" t="inlineStr">
+        <is>
+          <t>Si usa un clúster extendido, asegúrese de que ambos circuitos ExpressRoute están conectados al centro de conectividad.</t>
+        </is>
+      </c>
       <c r="D110" s="21" t="n"/>
-      <c r="E110" s="21" t="n"/>
+      <c r="E110" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G110" s="21" t="n"/>
-      <c r="H110" s="15" t="n"/>
+      <c r="H110" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="I110" s="15" t="n"/>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
-      <c r="L110" s="25" t="n"/>
+      <c r="L110" s="25" t="inlineStr">
+        <is>
+          <t>9579d66b-896d-471f-a6ca-7be9955d04c3</t>
+        </is>
+      </c>
       <c r="M110" s="25" t="n"/>
       <c r="N110" s="25" t="n"/>
       <c r="O110" s="25" t="n"/>
       <c r="P110" s="25" t="n"/>
     </row>
     <row r="111" ht="16.5" customHeight="1">
-      <c r="A111" s="21" t="n"/>
-      <c r="B111" s="21" t="n"/>
-      <c r="C111" s="21" t="n"/>
+      <c r="A111" s="21" t="inlineStr">
+        <is>
+          <t>Clúster extendido</t>
+        </is>
+      </c>
+      <c r="B111" s="21" t="inlineStr">
+        <is>
+          <t>Arquitectura</t>
+        </is>
+      </c>
+      <c r="C111" s="21" t="inlineStr">
+        <is>
+          <t>Si usa un clúster extendido, asegúrese de que ambos circuitos ExpressRoute tengan habilitado GlobalReach.</t>
+        </is>
+      </c>
       <c r="D111" s="21" t="n"/>
-      <c r="E111" s="21" t="n"/>
+      <c r="E111" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G111" s="21" t="n"/>
-      <c r="H111" s="15" t="n"/>
+      <c r="H111" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+        </is>
+      </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
-      <c r="L111" s="25" t="n"/>
+      <c r="L111" s="25" t="inlineStr">
+        <is>
+          <t>c49d987c-b3d1-4325-aa12-4b6e4d0685ed</t>
+        </is>
+      </c>
       <c r="M111" s="25" t="n"/>
       <c r="N111" s="25" t="n"/>
       <c r="O111" s="25" t="n"/>
       <c r="P111" s="25" t="n"/>
     </row>
     <row r="112" ht="16.5" customHeight="1">
-      <c r="A112" s="21" t="n"/>
-      <c r="B112" s="21" t="n"/>
-      <c r="C112" s="21" t="n"/>
+      <c r="A112" s="21" t="inlineStr">
+        <is>
+          <t>Clúster extendido</t>
+        </is>
+      </c>
+      <c r="B112" s="21" t="inlineStr">
+        <is>
+          <t>Arquitectura</t>
+        </is>
+      </c>
+      <c r="C112" s="21" t="inlineStr">
+        <is>
+          <t>Haga que la configuración de tolerancia ante desastres del sitio se considere y cambie correctamente para su negocio si es necesario.</t>
+        </is>
+      </c>
       <c r="D112" s="21" t="n"/>
-      <c r="E112" s="21" t="n"/>
+      <c r="E112" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G112" s="21" t="n"/>
-      <c r="H112" s="15" t="n"/>
+      <c r="H112" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="I112" s="15" t="n"/>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
-      <c r="L112" s="25" t="n"/>
+      <c r="L112" s="25" t="inlineStr">
+        <is>
+          <t>dce9793b-7bcd-4b3b-91eb-2ec14eea6e59</t>
+        </is>
+      </c>
       <c r="M112" s="25" t="n"/>
       <c r="N112" s="25" t="n"/>
       <c r="O112" s="25" t="n"/>
@@ -8036,7 +8484,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F97" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F113" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
